--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-28.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G740"/>
+  <dimension ref="A1:G669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16845,10 +16845,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G622" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="623">
@@ -16874,10 +16872,8 @@
         </is>
       </c>
       <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -16899,10 +16895,8 @@
       </c>
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
@@ -16924,10 +16918,8 @@
       </c>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="626">
@@ -16953,10 +16945,8 @@
         </is>
       </c>
       <c r="F626" t="inlineStr"/>
-      <c r="G626" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G626" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="627">
@@ -16978,10 +16968,8 @@
       </c>
       <c r="E627" t="inlineStr"/>
       <c r="F627" t="inlineStr"/>
-      <c r="G627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G627" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="628">
@@ -17003,10 +16991,8 @@
       </c>
       <c r="E628" t="inlineStr"/>
       <c r="F628" t="inlineStr"/>
-      <c r="G628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G628" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="629">
@@ -17028,10 +17014,8 @@
       </c>
       <c r="E629" t="inlineStr"/>
       <c r="F629" t="inlineStr"/>
-      <c r="G629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G629" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="630">
@@ -17053,10 +17037,8 @@
       </c>
       <c r="E630" t="inlineStr"/>
       <c r="F630" t="inlineStr"/>
-      <c r="G630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="631">
@@ -17078,10 +17060,8 @@
       </c>
       <c r="E631" t="inlineStr"/>
       <c r="F631" t="inlineStr"/>
-      <c r="G631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="632">
@@ -17103,10 +17083,8 @@
       </c>
       <c r="E632" t="inlineStr"/>
       <c r="F632" t="inlineStr"/>
-      <c r="G632" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G632" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="633">
@@ -17128,10 +17106,8 @@
       </c>
       <c r="E633" t="inlineStr"/>
       <c r="F633" t="inlineStr"/>
-      <c r="G633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G633" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="634">
@@ -17153,10 +17129,8 @@
       </c>
       <c r="E634" t="inlineStr"/>
       <c r="F634" t="inlineStr"/>
-      <c r="G634" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G634" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="635">
@@ -17178,10 +17152,8 @@
       </c>
       <c r="E635" t="inlineStr"/>
       <c r="F635" t="inlineStr"/>
-      <c r="G635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -17203,10 +17175,8 @@
       </c>
       <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr"/>
-      <c r="G636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G636" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="637">
@@ -17224,10 +17194,8 @@
       <c r="D637" t="inlineStr"/>
       <c r="E637" t="inlineStr"/>
       <c r="F637" t="inlineStr"/>
-      <c r="G637" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G637" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="638">
@@ -17249,10 +17217,8 @@
       </c>
       <c r="E638" t="inlineStr"/>
       <c r="F638" t="inlineStr"/>
-      <c r="G638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G638" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="639">
@@ -17270,10 +17236,8 @@
       <c r="D639" t="inlineStr"/>
       <c r="E639" t="inlineStr"/>
       <c r="F639" t="inlineStr"/>
-      <c r="G639" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G639" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="640">
@@ -17295,10 +17259,8 @@
       </c>
       <c r="E640" t="inlineStr"/>
       <c r="F640" t="inlineStr"/>
-      <c r="G640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G640" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="641">
@@ -17316,117 +17278,123 @@
       <c r="D641" t="inlineStr"/>
       <c r="E641" t="inlineStr"/>
       <c r="F641" t="inlineStr"/>
-      <c r="G641" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G641" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B642" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageFEB/22</t>
+        </is>
+      </c>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr"/>
       <c r="E642" t="inlineStr"/>
       <c r="F642" t="inlineStr"/>
-      <c r="G642" t="inlineStr"/>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
+          <t>Non Defense Goods Orders Ex AirJAN</t>
         </is>
       </c>
       <c r="C643" t="inlineStr"/>
       <c r="D643" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E643" t="inlineStr"/>
       <c r="F643" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
+          <t>PCE Prices QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C644" t="inlineStr"/>
       <c r="D644" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
+          <t>Real Consumer Spending QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C645" t="inlineStr"/>
       <c r="D645" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -17438,28 +17406,24 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Existing Home SalesJAN</t>
+          <t>Pending Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C646" t="inlineStr"/>
       <c r="D646" t="inlineStr">
         <is>
-          <t>4.24M</t>
-        </is>
-      </c>
-      <c r="E646" t="inlineStr">
-        <is>
-          <t>4.12M</t>
-        </is>
-      </c>
+          <t>-5.5%</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr"/>
       <c r="F646" t="inlineStr">
         <is>
-          <t>4.16M</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -17471,19 +17435,19 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMJAN</t>
+          <t>Pending Home Sales YoYJAN</t>
         </is>
       </c>
       <c r="C647" t="inlineStr"/>
       <c r="D647" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="E647" t="inlineStr"/>
       <c r="F647" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="G647" t="inlineStr">
@@ -17495,63 +17459,43 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/21</t>
         </is>
       </c>
       <c r="C648" t="inlineStr"/>
-      <c r="D648" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E648" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="F648" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
+      <c r="D648" t="inlineStr"/>
+      <c r="E648" t="inlineStr"/>
+      <c r="F648" t="inlineStr"/>
       <c r="G648" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
+          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
         </is>
       </c>
       <c r="C649" t="inlineStr"/>
-      <c r="D649" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="D649" t="inlineStr"/>
       <c r="E649" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F649" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>$50 million</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr"/>
       <c r="G649" t="inlineStr">
         <is>
           <t>3</t>
@@ -17561,28 +17505,24 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
+          <t>Kansas Fed Composite IndexFEB</t>
         </is>
       </c>
       <c r="C650" t="inlineStr"/>
       <c r="D650" t="inlineStr">
         <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
+          <t>-5</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr"/>
       <c r="F650" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="G650" t="inlineStr">
@@ -17594,28 +17534,24 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalFEB</t>
+          <t>Kansas Fed Manufacturing IndexFEB</t>
         </is>
       </c>
       <c r="C651" t="inlineStr"/>
       <c r="D651" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E651" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr"/>
       <c r="F651" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="G651" t="inlineStr">
@@ -17627,30 +17563,18 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C652" t="inlineStr"/>
-      <c r="D652" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E652" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F652" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="D652" t="inlineStr"/>
+      <c r="E652" t="inlineStr"/>
+      <c r="F652" t="inlineStr"/>
       <c r="G652" t="inlineStr">
         <is>
           <t>3</t>
@@ -17665,7 +17589,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Fed Jefferson Speech</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C653" t="inlineStr"/>
@@ -17674,27 +17598,23 @@
       <c r="F653" t="inlineStr"/>
       <c r="G653" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
+          <t>15-Year Mortgage RateFEB/27</t>
         </is>
       </c>
       <c r="C654" t="inlineStr"/>
-      <c r="D654" t="inlineStr">
-        <is>
-          <t>481</t>
-        </is>
-      </c>
+      <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr"/>
       <c r="F654" t="inlineStr"/>
       <c r="G654" t="inlineStr">
@@ -17706,20 +17626,16 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
+          <t>30-Year Mortgage RateFEB/27</t>
         </is>
       </c>
       <c r="C655" t="inlineStr"/>
-      <c r="D655" t="inlineStr">
-        <is>
-          <t>588</t>
-        </is>
-      </c>
+      <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr"/>
       <c r="F655" t="inlineStr"/>
       <c r="G655" t="inlineStr">
@@ -17731,20 +17647,28 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Saturday February 22 2025</t>
-        </is>
-      </c>
-      <c r="B656" t="inlineStr"/>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetFEB/26</t>
+        </is>
+      </c>
       <c r="C656" t="inlineStr"/>
       <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr"/>
       <c r="F656" t="inlineStr"/>
-      <c r="G656" t="inlineStr"/>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>Sunday February 23 2025</t>
+          <t>Friday February 28 2025</t>
         </is>
       </c>
       <c r="B657" t="inlineStr"/>
@@ -17757,15 +17681,31 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>Monday February 24 2025</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Core PCE Price Index MoMJAN</t>
+        </is>
+      </c>
       <c r="C658" t="inlineStr"/>
-      <c r="D658" t="inlineStr"/>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E658" t="inlineStr"/>
-      <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr"/>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -17775,250 +17715,274 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexJAN</t>
+          <t>Personal Income MoMJAN</t>
         </is>
       </c>
       <c r="C659" t="inlineStr"/>
       <c r="D659" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E659" t="inlineStr"/>
       <c r="F659" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G659" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexFEB</t>
+          <t>Personal Spending MoMJAN</t>
         </is>
       </c>
       <c r="C660" t="inlineStr"/>
       <c r="D660" t="inlineStr">
         <is>
-          <t>14.1</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E660" t="inlineStr"/>
       <c r="F660" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Goods Trade Balance AdvJAN</t>
         </is>
       </c>
       <c r="C661" t="inlineStr"/>
       <c r="D661" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>$-122.11B</t>
         </is>
       </c>
       <c r="E661" t="inlineStr"/>
-      <c r="F661" t="inlineStr"/>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>$ -126.0B</t>
+        </is>
+      </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>PCE Price Index MoMJAN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr"/>
       <c r="D662" t="inlineStr">
         <is>
-          <t>4.220%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E662" t="inlineStr"/>
-      <c r="F662" t="inlineStr"/>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>PCE Price Index YoYJAN</t>
         </is>
       </c>
       <c r="C663" t="inlineStr"/>
       <c r="D663" t="inlineStr">
         <is>
-          <t>4.211%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="E663" t="inlineStr"/>
-      <c r="F663" t="inlineStr"/>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>Tuesday February 25 2025</t>
-        </is>
-      </c>
-      <c r="B664" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
+        </is>
+      </c>
       <c r="C664" t="inlineStr"/>
-      <c r="D664" t="inlineStr"/>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="E664" t="inlineStr"/>
-      <c r="F664" t="inlineStr"/>
-      <c r="G664" t="inlineStr"/>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/22</t>
+          <t>Wholesale Inventories MoM AdvJAN</t>
         </is>
       </c>
       <c r="C665" t="inlineStr"/>
       <c r="D665" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E665" t="inlineStr"/>
-      <c r="F665" t="inlineStr"/>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYDEC</t>
+          <t>Core PCE Price Index YoYJAN</t>
         </is>
       </c>
       <c r="C666" t="inlineStr"/>
       <c r="D666" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E666" t="inlineStr"/>
       <c r="F666" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>House Price IndexDEC</t>
+          <t>Chicago PMIFEB</t>
         </is>
       </c>
       <c r="C667" t="inlineStr"/>
       <c r="D667" t="inlineStr">
         <is>
-          <t>433.4</t>
+          <t>39.5</t>
         </is>
       </c>
       <c r="E667" t="inlineStr"/>
       <c r="F667" t="inlineStr">
         <is>
-          <t>434.3</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>House Price Index MoMDEC</t>
+          <t>Baker Hughes Oil Rig CountFEB/28</t>
         </is>
       </c>
       <c r="C668" t="inlineStr"/>
-      <c r="D668" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D668" t="inlineStr"/>
       <c r="E668" t="inlineStr"/>
-      <c r="F668" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F668" t="inlineStr"/>
       <c r="G668" t="inlineStr">
         <is>
           <t>3</t>
@@ -18028,1842 +17992,19 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>Baker Hughes Total Rigs CountFEB/28</t>
         </is>
       </c>
       <c r="C669" t="inlineStr"/>
-      <c r="D669" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="D669" t="inlineStr"/>
       <c r="E669" t="inlineStr"/>
-      <c r="F669" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="F669" t="inlineStr"/>
       <c r="G669" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMDEC</t>
-        </is>
-      </c>
-      <c r="C670" t="inlineStr"/>
-      <c r="D670" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E670" t="inlineStr"/>
-      <c r="F670" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceFEB</t>
-        </is>
-      </c>
-      <c r="C671" t="inlineStr"/>
-      <c r="D671" t="inlineStr">
-        <is>
-          <t>104.1</t>
-        </is>
-      </c>
-      <c r="E671" t="inlineStr"/>
-      <c r="F671" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="G671" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C672" t="inlineStr"/>
-      <c r="D672" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="E672" t="inlineStr"/>
-      <c r="F672" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="G672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexFEB</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr"/>
-      <c r="D673" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="E673" t="inlineStr"/>
-      <c r="F673" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexFEB</t>
-        </is>
-      </c>
-      <c r="C674" t="inlineStr"/>
-      <c r="D674" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E674" t="inlineStr"/>
-      <c r="F674" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexFEB</t>
-        </is>
-      </c>
-      <c r="C675" t="inlineStr"/>
-      <c r="D675" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
-      <c r="E675" t="inlineStr"/>
-      <c r="F675" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G675" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexFEB</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr"/>
-      <c r="D676" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="E676" t="inlineStr"/>
-      <c r="F676" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr"/>
-      <c r="D677" t="inlineStr">
-        <is>
-          <t>4.33%</t>
-        </is>
-      </c>
-      <c r="E677" t="inlineStr"/>
-      <c r="F677" t="inlineStr"/>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>Money SupplyJAN</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr"/>
-      <c r="D678" t="inlineStr">
-        <is>
-          <t>$21.53T</t>
-        </is>
-      </c>
-      <c r="E678" t="inlineStr"/>
-      <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C679" t="inlineStr"/>
-      <c r="D679" t="inlineStr">
-        <is>
-          <t>3.34M</t>
-        </is>
-      </c>
-      <c r="E679" t="inlineStr"/>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>Wednesday February 26 2025</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr"/>
-      <c r="C680" t="inlineStr"/>
-      <c r="D680" t="inlineStr"/>
-      <c r="E680" t="inlineStr"/>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr"/>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/21</t>
-        </is>
-      </c>
-      <c r="C681" t="inlineStr"/>
-      <c r="D681" t="inlineStr">
-        <is>
-          <t>6.93%</t>
-        </is>
-      </c>
-      <c r="E681" t="inlineStr"/>
-      <c r="F681" t="inlineStr"/>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/21</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr"/>
-      <c r="D682" t="inlineStr">
-        <is>
-          <t>-6.6%</t>
-        </is>
-      </c>
-      <c r="E682" t="inlineStr"/>
-      <c r="F682" t="inlineStr"/>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/21</t>
-        </is>
-      </c>
-      <c r="C683" t="inlineStr"/>
-      <c r="D683" t="inlineStr">
-        <is>
-          <t>214.9</t>
-        </is>
-      </c>
-      <c r="E683" t="inlineStr"/>
-      <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/21</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr"/>
-      <c r="D684" t="inlineStr">
-        <is>
-          <t>593.6</t>
-        </is>
-      </c>
-      <c r="E684" t="inlineStr"/>
-      <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/21</t>
-        </is>
-      </c>
-      <c r="C685" t="inlineStr"/>
-      <c r="D685" t="inlineStr">
-        <is>
-          <t>144.0</t>
-        </is>
-      </c>
-      <c r="E685" t="inlineStr"/>
-      <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>New Home SalesJAN</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr"/>
-      <c r="D686" t="inlineStr">
-        <is>
-          <t>0.698M</t>
-        </is>
-      </c>
-      <c r="E686" t="inlineStr"/>
-      <c r="F686" t="inlineStr">
-        <is>
-          <t>0.68M</t>
-        </is>
-      </c>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr"/>
-      <c r="D687" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E687" t="inlineStr"/>
-      <c r="F687" t="inlineStr">
-        <is>
-          <t>-2.6%</t>
-        </is>
-      </c>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr"/>
-      <c r="D688" t="inlineStr"/>
-      <c r="E688" t="inlineStr"/>
-      <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr"/>
-      <c r="D689" t="inlineStr"/>
-      <c r="E689" t="inlineStr"/>
-      <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C690" t="inlineStr"/>
-      <c r="D690" t="inlineStr"/>
-      <c r="E690" t="inlineStr"/>
-      <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr"/>
-      <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr"/>
-      <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr"/>
-      <c r="D692" t="inlineStr"/>
-      <c r="E692" t="inlineStr"/>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr"/>
-      <c r="D693" t="inlineStr"/>
-      <c r="E693" t="inlineStr"/>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr"/>
-      <c r="D694" t="inlineStr"/>
-      <c r="E694" t="inlineStr"/>
-      <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr"/>
-      <c r="D695" t="inlineStr"/>
-      <c r="E695" t="inlineStr"/>
-      <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr"/>
-      <c r="D696" t="inlineStr"/>
-      <c r="E696" t="inlineStr"/>
-      <c r="F696" t="inlineStr"/>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr"/>
-      <c r="D697" t="inlineStr">
-        <is>
-          <t>4.215%</t>
-        </is>
-      </c>
-      <c r="E697" t="inlineStr"/>
-      <c r="F697" t="inlineStr"/>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C698" t="inlineStr"/>
-      <c r="D698" t="inlineStr"/>
-      <c r="E698" t="inlineStr"/>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr"/>
-      <c r="D699" t="inlineStr">
-        <is>
-          <t>0.098%</t>
-        </is>
-      </c>
-      <c r="E699" t="inlineStr"/>
-      <c r="F699" t="inlineStr"/>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr"/>
-      <c r="D700" t="inlineStr">
-        <is>
-          <t>4.457%</t>
-        </is>
-      </c>
-      <c r="E700" t="inlineStr"/>
-      <c r="F700" t="inlineStr"/>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr"/>
-      <c r="B701" t="inlineStr">
-        <is>
-          <t>Building Permits FinalJAN</t>
-        </is>
-      </c>
-      <c r="C701" t="inlineStr"/>
-      <c r="D701" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E701" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
-      <c r="F701" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr"/>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalJAN</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr"/>
-      <c r="D702" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E702" t="inlineStr"/>
-      <c r="F702" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>Thursday February 27 2025</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr"/>
-      <c r="C703" t="inlineStr"/>
-      <c r="D703" t="inlineStr"/>
-      <c r="E703" t="inlineStr"/>
-      <c r="F703" t="inlineStr"/>
-      <c r="G703" t="inlineStr"/>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMJAN</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr"/>
-      <c r="D704" t="inlineStr">
-        <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
-      <c r="E704" t="inlineStr"/>
-      <c r="F704" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr"/>
-      <c r="D705" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E705" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F705" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMJAN</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr"/>
-      <c r="D706" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E706" t="inlineStr"/>
-      <c r="F706" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr"/>
-      <c r="D707" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E707" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F707" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/22</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr"/>
-      <c r="D708" t="inlineStr"/>
-      <c r="E708" t="inlineStr"/>
-      <c r="F708" t="inlineStr"/>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr"/>
-      <c r="D709" t="inlineStr"/>
-      <c r="E709" t="inlineStr"/>
-      <c r="F709" t="inlineStr"/>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr"/>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMJAN</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="E711" t="inlineStr"/>
-      <c r="F711" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr"/>
-      <c r="D712" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E712" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F712" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/22</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr"/>
-      <c r="D713" t="inlineStr"/>
-      <c r="E713" t="inlineStr"/>
-      <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirJAN</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr"/>
-      <c r="D714" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E714" t="inlineStr"/>
-      <c r="F714" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C715" t="inlineStr"/>
-      <c r="D715" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E715" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F715" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B716" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C716" t="inlineStr"/>
-      <c r="D716" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E716" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F716" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B717" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C717" t="inlineStr"/>
-      <c r="D717" t="inlineStr">
-        <is>
-          <t>-5.5%</t>
-        </is>
-      </c>
-      <c r="E717" t="inlineStr"/>
-      <c r="F717" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G717" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="C718" t="inlineStr"/>
-      <c r="D718" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="E718" t="inlineStr"/>
-      <c r="F718" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
-      <c r="G718" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B719" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C719" t="inlineStr"/>
-      <c r="D719" t="inlineStr"/>
-      <c r="E719" t="inlineStr"/>
-      <c r="F719" t="inlineStr"/>
-      <c r="G719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B720" t="inlineStr">
-        <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
-        </is>
-      </c>
-      <c r="C720" t="inlineStr"/>
-      <c r="D720" t="inlineStr"/>
-      <c r="E720" t="inlineStr">
-        <is>
-          <t>$50 million</t>
-        </is>
-      </c>
-      <c r="F720" t="inlineStr"/>
-      <c r="G720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B721" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexFEB</t>
-        </is>
-      </c>
-      <c r="C721" t="inlineStr"/>
-      <c r="D721" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E721" t="inlineStr"/>
-      <c r="F721" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C722" t="inlineStr"/>
-      <c r="D722" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="E722" t="inlineStr"/>
-      <c r="F722" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C723" t="inlineStr"/>
-      <c r="D723" t="inlineStr"/>
-      <c r="E723" t="inlineStr"/>
-      <c r="F723" t="inlineStr"/>
-      <c r="G723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C724" t="inlineStr"/>
-      <c r="D724" t="inlineStr"/>
-      <c r="E724" t="inlineStr"/>
-      <c r="F724" t="inlineStr"/>
-      <c r="G724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/27</t>
-        </is>
-      </c>
-      <c r="C725" t="inlineStr"/>
-      <c r="D725" t="inlineStr"/>
-      <c r="E725" t="inlineStr"/>
-      <c r="F725" t="inlineStr"/>
-      <c r="G725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/27</t>
-        </is>
-      </c>
-      <c r="C726" t="inlineStr"/>
-      <c r="D726" t="inlineStr"/>
-      <c r="E726" t="inlineStr"/>
-      <c r="F726" t="inlineStr"/>
-      <c r="G726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/26</t>
-        </is>
-      </c>
-      <c r="C727" t="inlineStr"/>
-      <c r="D727" t="inlineStr"/>
-      <c r="E727" t="inlineStr"/>
-      <c r="F727" t="inlineStr"/>
-      <c r="G727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
-        <is>
-          <t>Friday February 28 2025</t>
-        </is>
-      </c>
-      <c r="B728" t="inlineStr"/>
-      <c r="C728" t="inlineStr"/>
-      <c r="D728" t="inlineStr"/>
-      <c r="E728" t="inlineStr"/>
-      <c r="F728" t="inlineStr"/>
-      <c r="G728" t="inlineStr"/>
-    </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C729" t="inlineStr"/>
-      <c r="D729" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E729" t="inlineStr"/>
-      <c r="F729" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G729" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>Personal Income MoMJAN</t>
-        </is>
-      </c>
-      <c r="C730" t="inlineStr"/>
-      <c r="D730" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E730" t="inlineStr"/>
-      <c r="F730" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G730" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B731" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMJAN</t>
-        </is>
-      </c>
-      <c r="C731" t="inlineStr"/>
-      <c r="D731" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E731" t="inlineStr"/>
-      <c r="F731" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G731" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvJAN</t>
-        </is>
-      </c>
-      <c r="C732" t="inlineStr"/>
-      <c r="D732" t="inlineStr">
-        <is>
-          <t>$-122.11B</t>
-        </is>
-      </c>
-      <c r="E732" t="inlineStr"/>
-      <c r="F732" t="inlineStr">
-        <is>
-          <t>$ -126.0B</t>
-        </is>
-      </c>
-      <c r="G732" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C733" t="inlineStr"/>
-      <c r="D733" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E733" t="inlineStr"/>
-      <c r="F733" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYJAN</t>
-        </is>
-      </c>
-      <c r="C734" t="inlineStr"/>
-      <c r="D734" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E734" t="inlineStr"/>
-      <c r="F734" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G734" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B735" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
-        </is>
-      </c>
-      <c r="C735" t="inlineStr"/>
-      <c r="D735" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E735" t="inlineStr"/>
-      <c r="F735" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B736" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvJAN</t>
-        </is>
-      </c>
-      <c r="C736" t="inlineStr"/>
-      <c r="D736" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E736" t="inlineStr"/>
-      <c r="F736" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G736" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B737" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYJAN</t>
-        </is>
-      </c>
-      <c r="C737" t="inlineStr"/>
-      <c r="D737" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E737" t="inlineStr"/>
-      <c r="F737" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B738" t="inlineStr">
-        <is>
-          <t>Chicago PMIFEB</t>
-        </is>
-      </c>
-      <c r="C738" t="inlineStr"/>
-      <c r="D738" t="inlineStr">
-        <is>
-          <t>39.5</t>
-        </is>
-      </c>
-      <c r="E738" t="inlineStr"/>
-      <c r="F738" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="G738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B739" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/28</t>
-        </is>
-      </c>
-      <c r="C739" t="inlineStr"/>
-      <c r="D739" t="inlineStr"/>
-      <c r="E739" t="inlineStr"/>
-      <c r="F739" t="inlineStr"/>
-      <c r="G739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B740" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/28</t>
-        </is>
-      </c>
-      <c r="C740" t="inlineStr"/>
-      <c r="D740" t="inlineStr"/>
-      <c r="E740" t="inlineStr"/>
-      <c r="F740" t="inlineStr"/>
-      <c r="G740" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-28.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G735"/>
+  <dimension ref="A1:G670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16418,10 +16418,8 @@
           <t>220.0K</t>
         </is>
       </c>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G607" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="608">
@@ -16451,10 +16449,8 @@
           <t>18</t>
         </is>
       </c>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G608" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="609">
@@ -16484,10 +16480,8 @@
           <t>1879.0K</t>
         </is>
       </c>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="610">
@@ -16513,10 +16507,8 @@
           <t>219.0K</t>
         </is>
       </c>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="611">
@@ -16538,10 +16530,8 @@
       </c>
       <c r="E611" t="inlineStr"/>
       <c r="F611" t="inlineStr"/>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -16563,10 +16553,8 @@
       </c>
       <c r="E612" t="inlineStr"/>
       <c r="F612" t="inlineStr"/>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -16588,10 +16576,8 @@
       </c>
       <c r="E613" t="inlineStr"/>
       <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -16613,10 +16599,8 @@
       </c>
       <c r="E614" t="inlineStr"/>
       <c r="F614" t="inlineStr"/>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -16638,10 +16622,8 @@
       </c>
       <c r="E615" t="inlineStr"/>
       <c r="F615" t="inlineStr"/>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -16659,10 +16641,8 @@
       <c r="D616" t="inlineStr"/>
       <c r="E616" t="inlineStr"/>
       <c r="F616" t="inlineStr"/>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G616" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="617">
@@ -16692,10 +16672,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -16721,10 +16699,8 @@
         </is>
       </c>
       <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -16746,10 +16722,8 @@
       </c>
       <c r="E619" t="inlineStr"/>
       <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -16771,10 +16745,8 @@
       </c>
       <c r="E620" t="inlineStr"/>
       <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -16800,10 +16772,8 @@
         </is>
       </c>
       <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="622">
@@ -16829,10 +16799,8 @@
         </is>
       </c>
       <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="623">
@@ -16854,10 +16822,8 @@
       </c>
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -16879,10 +16845,8 @@
       </c>
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
@@ -16904,10 +16868,8 @@
       </c>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="626">
@@ -16929,10 +16891,8 @@
       </c>
       <c r="E626" t="inlineStr"/>
       <c r="F626" t="inlineStr"/>
-      <c r="G626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="627">
@@ -16954,10 +16914,8 @@
       </c>
       <c r="E627" t="inlineStr"/>
       <c r="F627" t="inlineStr"/>
-      <c r="G627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G627" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="628">
@@ -16983,10 +16941,8 @@
         </is>
       </c>
       <c r="F628" t="inlineStr"/>
-      <c r="G628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G628" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="629">
@@ -17008,10 +16964,8 @@
       </c>
       <c r="E629" t="inlineStr"/>
       <c r="F629" t="inlineStr"/>
-      <c r="G629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G629" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="630">
@@ -17033,10 +16987,8 @@
       </c>
       <c r="E630" t="inlineStr"/>
       <c r="F630" t="inlineStr"/>
-      <c r="G630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="631">
@@ -17058,10 +17010,8 @@
       </c>
       <c r="E631" t="inlineStr"/>
       <c r="F631" t="inlineStr"/>
-      <c r="G631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="632">
@@ -17079,10 +17029,8 @@
       <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr"/>
       <c r="F632" t="inlineStr"/>
-      <c r="G632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="633">
@@ -17104,10 +17052,8 @@
       </c>
       <c r="E633" t="inlineStr"/>
       <c r="F633" t="inlineStr"/>
-      <c r="G633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G633" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="634">
@@ -17125,10 +17071,8 @@
       <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr"/>
       <c r="F634" t="inlineStr"/>
-      <c r="G634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="635">
@@ -17150,10 +17094,8 @@
       </c>
       <c r="E635" t="inlineStr"/>
       <c r="F635" t="inlineStr"/>
-      <c r="G635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -17171,48 +17113,58 @@
       <c r="D636" t="inlineStr"/>
       <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr"/>
-      <c r="G636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B637" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>GDP Price Index QoQ 2nd EstQ4</t>
+        </is>
+      </c>
       <c r="C637" t="inlineStr"/>
-      <c r="D637" t="inlineStr"/>
-      <c r="E637" t="inlineStr"/>
-      <c r="F637" t="inlineStr"/>
-      <c r="G637" t="inlineStr"/>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
+          <t>Initial Jobless ClaimsFEB/22</t>
         </is>
       </c>
       <c r="C638" t="inlineStr"/>
-      <c r="D638" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+      <c r="D638" t="inlineStr"/>
       <c r="E638" t="inlineStr"/>
-      <c r="F638" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+      <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr">
         <is>
           <t>2</t>
@@ -17222,189 +17174,161 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
+          <t>Continuing Jobless ClaimsFEB/15</t>
         </is>
       </c>
       <c r="C639" t="inlineStr"/>
-      <c r="D639" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
+      <c r="D639" t="inlineStr"/>
+      <c r="E639" t="inlineStr"/>
+      <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
+          <t>Core PCE Prices QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C640" t="inlineStr"/>
       <c r="D640" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Existing Home SalesJAN</t>
+          <t>Durable Goods Orders ex Defense MoMJAN</t>
         </is>
       </c>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr">
         <is>
-          <t>4.24M</t>
-        </is>
-      </c>
-      <c r="E641" t="inlineStr">
-        <is>
-          <t>4.12M</t>
-        </is>
-      </c>
+          <t>-2.4%</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr"/>
       <c r="F641" t="inlineStr">
         <is>
-          <t>4.16M</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMJAN</t>
+          <t>GDP Sales QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E642" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
+          <t>Jobless Claims 4-week AverageFEB/22</t>
         </is>
       </c>
       <c r="C643" t="inlineStr"/>
-      <c r="D643" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E643" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="F643" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
+      <c r="D643" t="inlineStr"/>
+      <c r="E643" t="inlineStr"/>
+      <c r="F643" t="inlineStr"/>
       <c r="G643" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
+          <t>Non Defense Goods Orders Ex AirJAN</t>
         </is>
       </c>
       <c r="C644" t="inlineStr"/>
       <c r="D644" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E644" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr"/>
       <c r="F644" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G644" t="inlineStr">
@@ -17416,28 +17340,28 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
+          <t>PCE Prices QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C645" t="inlineStr"/>
       <c r="D645" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
@@ -17449,28 +17373,28 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalFEB</t>
+          <t>Real Consumer Spending QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C646" t="inlineStr"/>
       <c r="D646" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G646" t="inlineStr">
@@ -17487,46 +17411,50 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
+          <t>Pending Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C647" t="inlineStr"/>
       <c r="D647" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E647" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+          <t>-5.5%</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr"/>
       <c r="F647" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Fed Jefferson Speech</t>
+          <t>Pending Home Sales YoYJAN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr"/>
-      <c r="D648" t="inlineStr"/>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
       <c r="E648" t="inlineStr"/>
-      <c r="F648" t="inlineStr"/>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
       <c r="G648" t="inlineStr">
         <is>
           <t>2</t>
@@ -17536,20 +17464,16 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/21</t>
         </is>
       </c>
       <c r="C649" t="inlineStr"/>
-      <c r="D649" t="inlineStr">
-        <is>
-          <t>481</t>
-        </is>
-      </c>
+      <c r="D649" t="inlineStr"/>
       <c r="E649" t="inlineStr"/>
       <c r="F649" t="inlineStr"/>
       <c r="G649" t="inlineStr">
@@ -17561,21 +17485,21 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
+          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
         </is>
       </c>
       <c r="C650" t="inlineStr"/>
-      <c r="D650" t="inlineStr">
-        <is>
-          <t>588</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr"/>
+      <c r="D650" t="inlineStr"/>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>$50 million</t>
+        </is>
+      </c>
       <c r="F650" t="inlineStr"/>
       <c r="G650" t="inlineStr">
         <is>
@@ -17586,117 +17510,137 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Saturday February 22 2025</t>
-        </is>
-      </c>
-      <c r="B651" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Kansas Fed Composite IndexFEB</t>
+        </is>
+      </c>
       <c r="C651" t="inlineStr"/>
-      <c r="D651" t="inlineStr"/>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="E651" t="inlineStr"/>
-      <c r="F651" t="inlineStr"/>
-      <c r="G651" t="inlineStr"/>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>Sunday February 23 2025</t>
-        </is>
-      </c>
-      <c r="B652" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Kansas Fed Manufacturing IndexFEB</t>
+        </is>
+      </c>
       <c r="C652" t="inlineStr"/>
-      <c r="D652" t="inlineStr"/>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
       <c r="E652" t="inlineStr"/>
-      <c r="F652" t="inlineStr"/>
-      <c r="G652" t="inlineStr"/>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>Monday February 24 2025</t>
-        </is>
-      </c>
-      <c r="B653" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C653" t="inlineStr"/>
       <c r="D653" t="inlineStr"/>
       <c r="E653" t="inlineStr"/>
       <c r="F653" t="inlineStr"/>
-      <c r="G653" t="inlineStr"/>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C654" t="inlineStr"/>
-      <c r="D654" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
+      <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr"/>
-      <c r="F654" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
+      <c r="F654" t="inlineStr"/>
       <c r="G654" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexFEB</t>
+          <t>15-Year Mortgage RateFEB/27</t>
         </is>
       </c>
       <c r="C655" t="inlineStr"/>
-      <c r="D655" t="inlineStr">
-        <is>
-          <t>14.1</t>
-        </is>
-      </c>
+      <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr"/>
-      <c r="F655" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
+      <c r="F655" t="inlineStr"/>
       <c r="G655" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>30-Year Mortgage RateFEB/27</t>
         </is>
       </c>
       <c r="C656" t="inlineStr"/>
-      <c r="D656" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
+      <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr"/>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr">
@@ -17708,20 +17652,16 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Fed Balance SheetFEB/26</t>
         </is>
       </c>
       <c r="C657" t="inlineStr"/>
-      <c r="D657" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
+      <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr"/>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr">
@@ -17733,133 +17673,141 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
+          <t>Friday February 28 2025</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr"/>
       <c r="C658" t="inlineStr"/>
-      <c r="D658" t="inlineStr">
-        <is>
-          <t>4.211%</t>
-        </is>
-      </c>
+      <c r="D658" t="inlineStr"/>
       <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Tuesday February 25 2025</t>
-        </is>
-      </c>
-      <c r="B659" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Core PCE Price Index MoMJAN</t>
+        </is>
+      </c>
       <c r="C659" t="inlineStr"/>
-      <c r="D659" t="inlineStr"/>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E659" t="inlineStr"/>
-      <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr"/>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/22</t>
+          <t>Personal Income MoMJAN</t>
         </is>
       </c>
       <c r="C660" t="inlineStr"/>
       <c r="D660" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E660" t="inlineStr"/>
-      <c r="F660" t="inlineStr"/>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYDEC</t>
+          <t>Personal Spending MoMJAN</t>
         </is>
       </c>
       <c r="C661" t="inlineStr"/>
       <c r="D661" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E661" t="inlineStr"/>
       <c r="F661" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>House Price IndexDEC</t>
+          <t>Goods Trade Balance AdvJAN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr"/>
       <c r="D662" t="inlineStr">
         <is>
-          <t>433.4</t>
+          <t>$-122.11B</t>
         </is>
       </c>
       <c r="E662" t="inlineStr"/>
       <c r="F662" t="inlineStr">
         <is>
-          <t>434.3</t>
+          <t>$ -126.0B</t>
         </is>
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>House Price Index MoMDEC</t>
+          <t>PCE Price Index MoMJAN</t>
         </is>
       </c>
       <c r="C663" t="inlineStr"/>
@@ -17871,53 +17819,53 @@
       <c r="E663" t="inlineStr"/>
       <c r="F663" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>PCE Price Index YoYJAN</t>
         </is>
       </c>
       <c r="C664" t="inlineStr"/>
       <c r="D664" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="E664" t="inlineStr"/>
       <c r="F664" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMDEC</t>
+          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
         </is>
       </c>
       <c r="C665" t="inlineStr"/>
@@ -17929,36 +17877,36 @@
       <c r="E665" t="inlineStr"/>
       <c r="F665" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceFEB</t>
+          <t>Wholesale Inventories MoM AdvJAN</t>
         </is>
       </c>
       <c r="C666" t="inlineStr"/>
       <c r="D666" t="inlineStr">
         <is>
-          <t>104.1</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E666" t="inlineStr"/>
       <c r="F666" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G666" t="inlineStr">
@@ -17970,24 +17918,24 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexFEB</t>
+          <t>Core PCE Price Index YoYJAN</t>
         </is>
       </c>
       <c r="C667" t="inlineStr"/>
       <c r="D667" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E667" t="inlineStr"/>
       <c r="F667" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G667" t="inlineStr">
@@ -17999,55 +17947,47 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexFEB</t>
+          <t>Chicago PMIFEB</t>
         </is>
       </c>
       <c r="C668" t="inlineStr"/>
       <c r="D668" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>39.5</t>
         </is>
       </c>
       <c r="E668" t="inlineStr"/>
       <c r="F668" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexFEB</t>
+          <t>Baker Hughes Oil Rig CountFEB/28</t>
         </is>
       </c>
       <c r="C669" t="inlineStr"/>
-      <c r="D669" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="D669" t="inlineStr"/>
       <c r="E669" t="inlineStr"/>
-      <c r="F669" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="F669" t="inlineStr"/>
       <c r="G669" t="inlineStr">
         <is>
           <t>3</t>
@@ -18057,1668 +17997,19 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexFEB</t>
+          <t>Baker Hughes Total Rigs CountFEB/28</t>
         </is>
       </c>
       <c r="C670" t="inlineStr"/>
-      <c r="D670" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
+      <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr"/>
-      <c r="F670" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="F670" t="inlineStr"/>
       <c r="G670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexFEB</t>
-        </is>
-      </c>
-      <c r="C671" t="inlineStr"/>
-      <c r="D671" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="E671" t="inlineStr"/>
-      <c r="F671" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C672" t="inlineStr"/>
-      <c r="D672" t="inlineStr">
-        <is>
-          <t>4.33%</t>
-        </is>
-      </c>
-      <c r="E672" t="inlineStr"/>
-      <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>Money SupplyJAN</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr"/>
-      <c r="D673" t="inlineStr">
-        <is>
-          <t>$21.53T</t>
-        </is>
-      </c>
-      <c r="E673" t="inlineStr"/>
-      <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C674" t="inlineStr"/>
-      <c r="D674" t="inlineStr">
-        <is>
-          <t>3.34M</t>
-        </is>
-      </c>
-      <c r="E674" t="inlineStr"/>
-      <c r="F674" t="inlineStr"/>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>Wednesday February 26 2025</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr"/>
-      <c r="C675" t="inlineStr"/>
-      <c r="D675" t="inlineStr"/>
-      <c r="E675" t="inlineStr"/>
-      <c r="F675" t="inlineStr"/>
-      <c r="G675" t="inlineStr"/>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/21</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr"/>
-      <c r="D676" t="inlineStr">
-        <is>
-          <t>6.93%</t>
-        </is>
-      </c>
-      <c r="E676" t="inlineStr"/>
-      <c r="F676" t="inlineStr"/>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/21</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr"/>
-      <c r="D677" t="inlineStr">
-        <is>
-          <t>-6.6%</t>
-        </is>
-      </c>
-      <c r="E677" t="inlineStr"/>
-      <c r="F677" t="inlineStr"/>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/21</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr"/>
-      <c r="D678" t="inlineStr">
-        <is>
-          <t>214.9</t>
-        </is>
-      </c>
-      <c r="E678" t="inlineStr"/>
-      <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/21</t>
-        </is>
-      </c>
-      <c r="C679" t="inlineStr"/>
-      <c r="D679" t="inlineStr">
-        <is>
-          <t>593.6</t>
-        </is>
-      </c>
-      <c r="E679" t="inlineStr"/>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/21</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr"/>
-      <c r="D680" t="inlineStr">
-        <is>
-          <t>144.0</t>
-        </is>
-      </c>
-      <c r="E680" t="inlineStr"/>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>New Home SalesJAN</t>
-        </is>
-      </c>
-      <c r="C681" t="inlineStr"/>
-      <c r="D681" t="inlineStr">
-        <is>
-          <t>0.698M</t>
-        </is>
-      </c>
-      <c r="E681" t="inlineStr"/>
-      <c r="F681" t="inlineStr">
-        <is>
-          <t>0.68M</t>
-        </is>
-      </c>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr"/>
-      <c r="D682" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E682" t="inlineStr"/>
-      <c r="F682" t="inlineStr">
-        <is>
-          <t>-2.6%</t>
-        </is>
-      </c>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C683" t="inlineStr"/>
-      <c r="D683" t="inlineStr"/>
-      <c r="E683" t="inlineStr"/>
-      <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr"/>
-      <c r="D684" t="inlineStr"/>
-      <c r="E684" t="inlineStr"/>
-      <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C685" t="inlineStr"/>
-      <c r="D685" t="inlineStr"/>
-      <c r="E685" t="inlineStr"/>
-      <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr"/>
-      <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr"/>
-      <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr"/>
-      <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr"/>
-      <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr"/>
-      <c r="D688" t="inlineStr"/>
-      <c r="E688" t="inlineStr"/>
-      <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr"/>
-      <c r="D689" t="inlineStr"/>
-      <c r="E689" t="inlineStr"/>
-      <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C690" t="inlineStr"/>
-      <c r="D690" t="inlineStr"/>
-      <c r="E690" t="inlineStr"/>
-      <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr"/>
-      <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr"/>
-      <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr"/>
-      <c r="D692" t="inlineStr">
-        <is>
-          <t>4.215%</t>
-        </is>
-      </c>
-      <c r="E692" t="inlineStr"/>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr"/>
-      <c r="D693" t="inlineStr"/>
-      <c r="E693" t="inlineStr"/>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr"/>
-      <c r="D694" t="inlineStr">
-        <is>
-          <t>0.098%</t>
-        </is>
-      </c>
-      <c r="E694" t="inlineStr"/>
-      <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr"/>
-      <c r="D695" t="inlineStr">
-        <is>
-          <t>4.457%</t>
-        </is>
-      </c>
-      <c r="E695" t="inlineStr"/>
-      <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr"/>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>Building Permits FinalJAN</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr"/>
-      <c r="D696" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E696" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
-      <c r="F696" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr"/>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalJAN</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr"/>
-      <c r="D697" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E697" t="inlineStr"/>
-      <c r="F697" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>Thursday February 27 2025</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr"/>
-      <c r="C698" t="inlineStr"/>
-      <c r="D698" t="inlineStr"/>
-      <c r="E698" t="inlineStr"/>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr"/>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMJAN</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr"/>
-      <c r="D699" t="inlineStr">
-        <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
-      <c r="E699" t="inlineStr"/>
-      <c r="F699" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr"/>
-      <c r="D700" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E700" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F700" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMJAN</t>
-        </is>
-      </c>
-      <c r="C701" t="inlineStr"/>
-      <c r="D701" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E701" t="inlineStr"/>
-      <c r="F701" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr"/>
-      <c r="D702" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E702" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F702" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/22</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr"/>
-      <c r="D703" t="inlineStr"/>
-      <c r="E703" t="inlineStr"/>
-      <c r="F703" t="inlineStr"/>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr"/>
-      <c r="D704" t="inlineStr"/>
-      <c r="E704" t="inlineStr"/>
-      <c r="F704" t="inlineStr"/>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr"/>
-      <c r="D705" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E705" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F705" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMJAN</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr"/>
-      <c r="D706" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="E706" t="inlineStr"/>
-      <c r="F706" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr"/>
-      <c r="D707" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E707" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F707" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/22</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr"/>
-      <c r="D708" t="inlineStr"/>
-      <c r="E708" t="inlineStr"/>
-      <c r="F708" t="inlineStr"/>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirJAN</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr"/>
-      <c r="D709" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E709" t="inlineStr"/>
-      <c r="F709" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr"/>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E711" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F711" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr"/>
-      <c r="D712" t="inlineStr">
-        <is>
-          <t>-5.5%</t>
-        </is>
-      </c>
-      <c r="E712" t="inlineStr"/>
-      <c r="F712" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr"/>
-      <c r="D713" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="E713" t="inlineStr"/>
-      <c r="F713" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr"/>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr"/>
-      <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr">
-        <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
-        </is>
-      </c>
-      <c r="C715" t="inlineStr"/>
-      <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr">
-        <is>
-          <t>$50 million</t>
-        </is>
-      </c>
-      <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B716" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexFEB</t>
-        </is>
-      </c>
-      <c r="C716" t="inlineStr"/>
-      <c r="D716" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E716" t="inlineStr"/>
-      <c r="F716" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B717" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C717" t="inlineStr"/>
-      <c r="D717" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="E717" t="inlineStr"/>
-      <c r="F717" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C718" t="inlineStr"/>
-      <c r="D718" t="inlineStr"/>
-      <c r="E718" t="inlineStr"/>
-      <c r="F718" t="inlineStr"/>
-      <c r="G718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B719" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C719" t="inlineStr"/>
-      <c r="D719" t="inlineStr"/>
-      <c r="E719" t="inlineStr"/>
-      <c r="F719" t="inlineStr"/>
-      <c r="G719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B720" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/27</t>
-        </is>
-      </c>
-      <c r="C720" t="inlineStr"/>
-      <c r="D720" t="inlineStr"/>
-      <c r="E720" t="inlineStr"/>
-      <c r="F720" t="inlineStr"/>
-      <c r="G720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B721" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/27</t>
-        </is>
-      </c>
-      <c r="C721" t="inlineStr"/>
-      <c r="D721" t="inlineStr"/>
-      <c r="E721" t="inlineStr"/>
-      <c r="F721" t="inlineStr"/>
-      <c r="G721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/26</t>
-        </is>
-      </c>
-      <c r="C722" t="inlineStr"/>
-      <c r="D722" t="inlineStr"/>
-      <c r="E722" t="inlineStr"/>
-      <c r="F722" t="inlineStr"/>
-      <c r="G722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>Friday February 28 2025</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr"/>
-      <c r="C723" t="inlineStr"/>
-      <c r="D723" t="inlineStr"/>
-      <c r="E723" t="inlineStr"/>
-      <c r="F723" t="inlineStr"/>
-      <c r="G723" t="inlineStr"/>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C724" t="inlineStr"/>
-      <c r="D724" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E724" t="inlineStr"/>
-      <c r="F724" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G724" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>Personal Income MoMJAN</t>
-        </is>
-      </c>
-      <c r="C725" t="inlineStr"/>
-      <c r="D725" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E725" t="inlineStr"/>
-      <c r="F725" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G725" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMJAN</t>
-        </is>
-      </c>
-      <c r="C726" t="inlineStr"/>
-      <c r="D726" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E726" t="inlineStr"/>
-      <c r="F726" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G726" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvJAN</t>
-        </is>
-      </c>
-      <c r="C727" t="inlineStr"/>
-      <c r="D727" t="inlineStr">
-        <is>
-          <t>$-122.11B</t>
-        </is>
-      </c>
-      <c r="E727" t="inlineStr"/>
-      <c r="F727" t="inlineStr">
-        <is>
-          <t>$ -126.0B</t>
-        </is>
-      </c>
-      <c r="G727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C728" t="inlineStr"/>
-      <c r="D728" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E728" t="inlineStr"/>
-      <c r="F728" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G728" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYJAN</t>
-        </is>
-      </c>
-      <c r="C729" t="inlineStr"/>
-      <c r="D729" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E729" t="inlineStr"/>
-      <c r="F729" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
-        </is>
-      </c>
-      <c r="C730" t="inlineStr"/>
-      <c r="D730" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E730" t="inlineStr"/>
-      <c r="F730" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B731" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvJAN</t>
-        </is>
-      </c>
-      <c r="C731" t="inlineStr"/>
-      <c r="D731" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E731" t="inlineStr"/>
-      <c r="F731" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYJAN</t>
-        </is>
-      </c>
-      <c r="C732" t="inlineStr"/>
-      <c r="D732" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E732" t="inlineStr"/>
-      <c r="F732" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>Chicago PMIFEB</t>
-        </is>
-      </c>
-      <c r="C733" t="inlineStr"/>
-      <c r="D733" t="inlineStr">
-        <is>
-          <t>39.5</t>
-        </is>
-      </c>
-      <c r="E733" t="inlineStr"/>
-      <c r="F733" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="G733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/28</t>
-        </is>
-      </c>
-      <c r="C734" t="inlineStr"/>
-      <c r="D734" t="inlineStr"/>
-      <c r="E734" t="inlineStr"/>
-      <c r="F734" t="inlineStr"/>
-      <c r="G734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B735" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/28</t>
-        </is>
-      </c>
-      <c r="C735" t="inlineStr"/>
-      <c r="D735" t="inlineStr"/>
-      <c r="E735" t="inlineStr"/>
-      <c r="F735" t="inlineStr"/>
-      <c r="G735" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-28.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G735"/>
+  <dimension ref="A1:G670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16422,10 +16422,8 @@
           <t>220.0K</t>
         </is>
       </c>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G607" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="608">
@@ -16459,10 +16457,8 @@
           <t>18</t>
         </is>
       </c>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G608" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="609">
@@ -16496,10 +16492,8 @@
           <t>1879.0K</t>
         </is>
       </c>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="610">
@@ -16529,10 +16523,8 @@
           <t>219.0K</t>
         </is>
       </c>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="611">
@@ -16558,10 +16550,8 @@
       </c>
       <c r="E611" t="inlineStr"/>
       <c r="F611" t="inlineStr"/>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -16587,10 +16577,8 @@
       </c>
       <c r="E612" t="inlineStr"/>
       <c r="F612" t="inlineStr"/>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -16616,10 +16604,8 @@
       </c>
       <c r="E613" t="inlineStr"/>
       <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -16645,10 +16631,8 @@
       </c>
       <c r="E614" t="inlineStr"/>
       <c r="F614" t="inlineStr"/>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -16674,10 +16658,8 @@
       </c>
       <c r="E615" t="inlineStr"/>
       <c r="F615" t="inlineStr"/>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -16695,10 +16677,8 @@
       <c r="D616" t="inlineStr"/>
       <c r="E616" t="inlineStr"/>
       <c r="F616" t="inlineStr"/>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G616" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="617">
@@ -16728,10 +16708,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -16757,10 +16735,8 @@
         </is>
       </c>
       <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -16782,10 +16758,8 @@
       </c>
       <c r="E619" t="inlineStr"/>
       <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -16807,10 +16781,8 @@
       </c>
       <c r="E620" t="inlineStr"/>
       <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -16836,10 +16808,8 @@
         </is>
       </c>
       <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="622">
@@ -16865,10 +16835,8 @@
         </is>
       </c>
       <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="623">
@@ -16890,10 +16858,8 @@
       </c>
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -16915,10 +16881,8 @@
       </c>
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
@@ -16940,10 +16904,8 @@
       </c>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="626">
@@ -16965,10 +16927,8 @@
       </c>
       <c r="E626" t="inlineStr"/>
       <c r="F626" t="inlineStr"/>
-      <c r="G626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="627">
@@ -16990,10 +16950,8 @@
       </c>
       <c r="E627" t="inlineStr"/>
       <c r="F627" t="inlineStr"/>
-      <c r="G627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G627" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="628">
@@ -17019,10 +16977,8 @@
         </is>
       </c>
       <c r="F628" t="inlineStr"/>
-      <c r="G628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G628" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="629">
@@ -17044,10 +17000,8 @@
       </c>
       <c r="E629" t="inlineStr"/>
       <c r="F629" t="inlineStr"/>
-      <c r="G629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G629" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="630">
@@ -17069,10 +17023,8 @@
       </c>
       <c r="E630" t="inlineStr"/>
       <c r="F630" t="inlineStr"/>
-      <c r="G630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="631">
@@ -17094,10 +17046,8 @@
       </c>
       <c r="E631" t="inlineStr"/>
       <c r="F631" t="inlineStr"/>
-      <c r="G631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="632">
@@ -17115,10 +17065,8 @@
       <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr"/>
       <c r="F632" t="inlineStr"/>
-      <c r="G632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="633">
@@ -17140,10 +17088,8 @@
       </c>
       <c r="E633" t="inlineStr"/>
       <c r="F633" t="inlineStr"/>
-      <c r="G633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G633" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="634">
@@ -17161,10 +17107,8 @@
       <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr"/>
       <c r="F634" t="inlineStr"/>
-      <c r="G634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="635">
@@ -17186,10 +17130,8 @@
       </c>
       <c r="E635" t="inlineStr"/>
       <c r="F635" t="inlineStr"/>
-      <c r="G635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -17207,48 +17149,58 @@
       <c r="D636" t="inlineStr"/>
       <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr"/>
-      <c r="G636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B637" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>GDP Price Index QoQ 2nd EstQ4</t>
+        </is>
+      </c>
       <c r="C637" t="inlineStr"/>
-      <c r="D637" t="inlineStr"/>
-      <c r="E637" t="inlineStr"/>
-      <c r="F637" t="inlineStr"/>
-      <c r="G637" t="inlineStr"/>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
+          <t>Initial Jobless ClaimsFEB/22</t>
         </is>
       </c>
       <c r="C638" t="inlineStr"/>
-      <c r="D638" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+      <c r="D638" t="inlineStr"/>
       <c r="E638" t="inlineStr"/>
-      <c r="F638" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+      <c r="F638" t="inlineStr"/>
       <c r="G638" t="inlineStr">
         <is>
           <t>2</t>
@@ -17258,189 +17210,161 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
+          <t>Continuing Jobless ClaimsFEB/15</t>
         </is>
       </c>
       <c r="C639" t="inlineStr"/>
-      <c r="D639" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
+      <c r="D639" t="inlineStr"/>
+      <c r="E639" t="inlineStr"/>
+      <c r="F639" t="inlineStr"/>
       <c r="G639" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
+          <t>Core PCE Prices QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C640" t="inlineStr"/>
       <c r="D640" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Existing Home SalesJAN</t>
+          <t>Durable Goods Orders ex Defense MoMJAN</t>
         </is>
       </c>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr">
         <is>
-          <t>4.24M</t>
-        </is>
-      </c>
-      <c r="E641" t="inlineStr">
-        <is>
-          <t>4.12M</t>
-        </is>
-      </c>
+          <t>-2.4%</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr"/>
       <c r="F641" t="inlineStr">
         <is>
-          <t>4.16M</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMJAN</t>
+          <t>GDP Sales QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E642" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
+          <t>Jobless Claims 4-week AverageFEB/22</t>
         </is>
       </c>
       <c r="C643" t="inlineStr"/>
-      <c r="D643" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E643" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="F643" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
+      <c r="D643" t="inlineStr"/>
+      <c r="E643" t="inlineStr"/>
+      <c r="F643" t="inlineStr"/>
       <c r="G643" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
+          <t>Non Defense Goods Orders Ex AirJAN</t>
         </is>
       </c>
       <c r="C644" t="inlineStr"/>
       <c r="D644" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E644" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr"/>
       <c r="F644" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G644" t="inlineStr">
@@ -17452,28 +17376,28 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
+          <t>PCE Prices QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C645" t="inlineStr"/>
       <c r="D645" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
@@ -17485,28 +17409,28 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalFEB</t>
+          <t>Real Consumer Spending QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C646" t="inlineStr"/>
       <c r="D646" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G646" t="inlineStr">
@@ -17523,46 +17447,50 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
+          <t>Pending Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C647" t="inlineStr"/>
       <c r="D647" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E647" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+          <t>-5.5%</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr"/>
       <c r="F647" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Fed Jefferson Speech</t>
+          <t>Pending Home Sales YoYJAN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr"/>
-      <c r="D648" t="inlineStr"/>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
       <c r="E648" t="inlineStr"/>
-      <c r="F648" t="inlineStr"/>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
       <c r="G648" t="inlineStr">
         <is>
           <t>2</t>
@@ -17572,20 +17500,16 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/21</t>
         </is>
       </c>
       <c r="C649" t="inlineStr"/>
-      <c r="D649" t="inlineStr">
-        <is>
-          <t>481</t>
-        </is>
-      </c>
+      <c r="D649" t="inlineStr"/>
       <c r="E649" t="inlineStr"/>
       <c r="F649" t="inlineStr"/>
       <c r="G649" t="inlineStr">
@@ -17597,21 +17521,21 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
+          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
         </is>
       </c>
       <c r="C650" t="inlineStr"/>
-      <c r="D650" t="inlineStr">
-        <is>
-          <t>588</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr"/>
+      <c r="D650" t="inlineStr"/>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>$50 million</t>
+        </is>
+      </c>
       <c r="F650" t="inlineStr"/>
       <c r="G650" t="inlineStr">
         <is>
@@ -17622,117 +17546,137 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Saturday February 22 2025</t>
-        </is>
-      </c>
-      <c r="B651" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Kansas Fed Composite IndexFEB</t>
+        </is>
+      </c>
       <c r="C651" t="inlineStr"/>
-      <c r="D651" t="inlineStr"/>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="E651" t="inlineStr"/>
-      <c r="F651" t="inlineStr"/>
-      <c r="G651" t="inlineStr"/>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>Sunday February 23 2025</t>
-        </is>
-      </c>
-      <c r="B652" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Kansas Fed Manufacturing IndexFEB</t>
+        </is>
+      </c>
       <c r="C652" t="inlineStr"/>
-      <c r="D652" t="inlineStr"/>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
       <c r="E652" t="inlineStr"/>
-      <c r="F652" t="inlineStr"/>
-      <c r="G652" t="inlineStr"/>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>Monday February 24 2025</t>
-        </is>
-      </c>
-      <c r="B653" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C653" t="inlineStr"/>
       <c r="D653" t="inlineStr"/>
       <c r="E653" t="inlineStr"/>
       <c r="F653" t="inlineStr"/>
-      <c r="G653" t="inlineStr"/>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C654" t="inlineStr"/>
-      <c r="D654" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
+      <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr"/>
-      <c r="F654" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
+      <c r="F654" t="inlineStr"/>
       <c r="G654" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexFEB</t>
+          <t>15-Year Mortgage RateFEB/27</t>
         </is>
       </c>
       <c r="C655" t="inlineStr"/>
-      <c r="D655" t="inlineStr">
-        <is>
-          <t>14.1</t>
-        </is>
-      </c>
+      <c r="D655" t="inlineStr"/>
       <c r="E655" t="inlineStr"/>
-      <c r="F655" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
+      <c r="F655" t="inlineStr"/>
       <c r="G655" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>30-Year Mortgage RateFEB/27</t>
         </is>
       </c>
       <c r="C656" t="inlineStr"/>
-      <c r="D656" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
+      <c r="D656" t="inlineStr"/>
       <c r="E656" t="inlineStr"/>
       <c r="F656" t="inlineStr"/>
       <c r="G656" t="inlineStr">
@@ -17744,20 +17688,16 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Fed Balance SheetFEB/26</t>
         </is>
       </c>
       <c r="C657" t="inlineStr"/>
-      <c r="D657" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
+      <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr"/>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr">
@@ -17769,133 +17709,141 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
+          <t>Friday February 28 2025</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr"/>
       <c r="C658" t="inlineStr"/>
-      <c r="D658" t="inlineStr">
-        <is>
-          <t>4.211%</t>
-        </is>
-      </c>
+      <c r="D658" t="inlineStr"/>
       <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Tuesday February 25 2025</t>
-        </is>
-      </c>
-      <c r="B659" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Core PCE Price Index MoMJAN</t>
+        </is>
+      </c>
       <c r="C659" t="inlineStr"/>
-      <c r="D659" t="inlineStr"/>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E659" t="inlineStr"/>
-      <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr"/>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/22</t>
+          <t>Personal Income MoMJAN</t>
         </is>
       </c>
       <c r="C660" t="inlineStr"/>
       <c r="D660" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E660" t="inlineStr"/>
-      <c r="F660" t="inlineStr"/>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYDEC</t>
+          <t>Personal Spending MoMJAN</t>
         </is>
       </c>
       <c r="C661" t="inlineStr"/>
       <c r="D661" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E661" t="inlineStr"/>
       <c r="F661" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>House Price IndexDEC</t>
+          <t>Goods Trade Balance AdvJAN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr"/>
       <c r="D662" t="inlineStr">
         <is>
-          <t>433.4</t>
+          <t>$-122.11B</t>
         </is>
       </c>
       <c r="E662" t="inlineStr"/>
       <c r="F662" t="inlineStr">
         <is>
-          <t>434.3</t>
+          <t>$ -126.0B</t>
         </is>
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>House Price Index MoMDEC</t>
+          <t>PCE Price Index MoMJAN</t>
         </is>
       </c>
       <c r="C663" t="inlineStr"/>
@@ -17907,53 +17855,53 @@
       <c r="E663" t="inlineStr"/>
       <c r="F663" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>PCE Price Index YoYJAN</t>
         </is>
       </c>
       <c r="C664" t="inlineStr"/>
       <c r="D664" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="E664" t="inlineStr"/>
       <c r="F664" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMDEC</t>
+          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
         </is>
       </c>
       <c r="C665" t="inlineStr"/>
@@ -17965,36 +17913,36 @@
       <c r="E665" t="inlineStr"/>
       <c r="F665" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceFEB</t>
+          <t>Wholesale Inventories MoM AdvJAN</t>
         </is>
       </c>
       <c r="C666" t="inlineStr"/>
       <c r="D666" t="inlineStr">
         <is>
-          <t>104.1</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E666" t="inlineStr"/>
       <c r="F666" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G666" t="inlineStr">
@@ -18006,24 +17954,24 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexFEB</t>
+          <t>Core PCE Price Index YoYJAN</t>
         </is>
       </c>
       <c r="C667" t="inlineStr"/>
       <c r="D667" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E667" t="inlineStr"/>
       <c r="F667" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G667" t="inlineStr">
@@ -18035,55 +17983,47 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexFEB</t>
+          <t>Chicago PMIFEB</t>
         </is>
       </c>
       <c r="C668" t="inlineStr"/>
       <c r="D668" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>39.5</t>
         </is>
       </c>
       <c r="E668" t="inlineStr"/>
       <c r="F668" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexFEB</t>
+          <t>Baker Hughes Oil Rig CountFEB/28</t>
         </is>
       </c>
       <c r="C669" t="inlineStr"/>
-      <c r="D669" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="D669" t="inlineStr"/>
       <c r="E669" t="inlineStr"/>
-      <c r="F669" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="F669" t="inlineStr"/>
       <c r="G669" t="inlineStr">
         <is>
           <t>3</t>
@@ -18093,1668 +18033,19 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexFEB</t>
+          <t>Baker Hughes Total Rigs CountFEB/28</t>
         </is>
       </c>
       <c r="C670" t="inlineStr"/>
-      <c r="D670" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
+      <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr"/>
-      <c r="F670" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="F670" t="inlineStr"/>
       <c r="G670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexFEB</t>
-        </is>
-      </c>
-      <c r="C671" t="inlineStr"/>
-      <c r="D671" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="E671" t="inlineStr"/>
-      <c r="F671" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C672" t="inlineStr"/>
-      <c r="D672" t="inlineStr">
-        <is>
-          <t>4.33%</t>
-        </is>
-      </c>
-      <c r="E672" t="inlineStr"/>
-      <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>Money SupplyJAN</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr"/>
-      <c r="D673" t="inlineStr">
-        <is>
-          <t>$21.53T</t>
-        </is>
-      </c>
-      <c r="E673" t="inlineStr"/>
-      <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C674" t="inlineStr"/>
-      <c r="D674" t="inlineStr">
-        <is>
-          <t>3.34M</t>
-        </is>
-      </c>
-      <c r="E674" t="inlineStr"/>
-      <c r="F674" t="inlineStr"/>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>Wednesday February 26 2025</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr"/>
-      <c r="C675" t="inlineStr"/>
-      <c r="D675" t="inlineStr"/>
-      <c r="E675" t="inlineStr"/>
-      <c r="F675" t="inlineStr"/>
-      <c r="G675" t="inlineStr"/>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/21</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr"/>
-      <c r="D676" t="inlineStr">
-        <is>
-          <t>6.93%</t>
-        </is>
-      </c>
-      <c r="E676" t="inlineStr"/>
-      <c r="F676" t="inlineStr"/>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/21</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr"/>
-      <c r="D677" t="inlineStr">
-        <is>
-          <t>-6.6%</t>
-        </is>
-      </c>
-      <c r="E677" t="inlineStr"/>
-      <c r="F677" t="inlineStr"/>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/21</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr"/>
-      <c r="D678" t="inlineStr">
-        <is>
-          <t>214.9</t>
-        </is>
-      </c>
-      <c r="E678" t="inlineStr"/>
-      <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/21</t>
-        </is>
-      </c>
-      <c r="C679" t="inlineStr"/>
-      <c r="D679" t="inlineStr">
-        <is>
-          <t>593.6</t>
-        </is>
-      </c>
-      <c r="E679" t="inlineStr"/>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/21</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr"/>
-      <c r="D680" t="inlineStr">
-        <is>
-          <t>144.0</t>
-        </is>
-      </c>
-      <c r="E680" t="inlineStr"/>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>New Home SalesJAN</t>
-        </is>
-      </c>
-      <c r="C681" t="inlineStr"/>
-      <c r="D681" t="inlineStr">
-        <is>
-          <t>0.698M</t>
-        </is>
-      </c>
-      <c r="E681" t="inlineStr"/>
-      <c r="F681" t="inlineStr">
-        <is>
-          <t>0.68M</t>
-        </is>
-      </c>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr"/>
-      <c r="D682" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E682" t="inlineStr"/>
-      <c r="F682" t="inlineStr">
-        <is>
-          <t>-2.6%</t>
-        </is>
-      </c>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C683" t="inlineStr"/>
-      <c r="D683" t="inlineStr"/>
-      <c r="E683" t="inlineStr"/>
-      <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr"/>
-      <c r="D684" t="inlineStr"/>
-      <c r="E684" t="inlineStr"/>
-      <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C685" t="inlineStr"/>
-      <c r="D685" t="inlineStr"/>
-      <c r="E685" t="inlineStr"/>
-      <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr"/>
-      <c r="D686" t="inlineStr"/>
-      <c r="E686" t="inlineStr"/>
-      <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr"/>
-      <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr"/>
-      <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr"/>
-      <c r="D688" t="inlineStr"/>
-      <c r="E688" t="inlineStr"/>
-      <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr"/>
-      <c r="D689" t="inlineStr"/>
-      <c r="E689" t="inlineStr"/>
-      <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C690" t="inlineStr"/>
-      <c r="D690" t="inlineStr"/>
-      <c r="E690" t="inlineStr"/>
-      <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr"/>
-      <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr"/>
-      <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr"/>
-      <c r="D692" t="inlineStr">
-        <is>
-          <t>4.215%</t>
-        </is>
-      </c>
-      <c r="E692" t="inlineStr"/>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr"/>
-      <c r="D693" t="inlineStr"/>
-      <c r="E693" t="inlineStr"/>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr"/>
-      <c r="D694" t="inlineStr">
-        <is>
-          <t>0.098%</t>
-        </is>
-      </c>
-      <c r="E694" t="inlineStr"/>
-      <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr"/>
-      <c r="D695" t="inlineStr">
-        <is>
-          <t>4.457%</t>
-        </is>
-      </c>
-      <c r="E695" t="inlineStr"/>
-      <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr"/>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>Building Permits FinalJAN</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr"/>
-      <c r="D696" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E696" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
-      <c r="F696" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr"/>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalJAN</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr"/>
-      <c r="D697" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E697" t="inlineStr"/>
-      <c r="F697" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>Thursday February 27 2025</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr"/>
-      <c r="C698" t="inlineStr"/>
-      <c r="D698" t="inlineStr"/>
-      <c r="E698" t="inlineStr"/>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr"/>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMJAN</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr"/>
-      <c r="D699" t="inlineStr">
-        <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
-      <c r="E699" t="inlineStr"/>
-      <c r="F699" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr"/>
-      <c r="D700" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E700" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F700" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMJAN</t>
-        </is>
-      </c>
-      <c r="C701" t="inlineStr"/>
-      <c r="D701" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E701" t="inlineStr"/>
-      <c r="F701" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr"/>
-      <c r="D702" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E702" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F702" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/22</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr"/>
-      <c r="D703" t="inlineStr"/>
-      <c r="E703" t="inlineStr"/>
-      <c r="F703" t="inlineStr"/>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr"/>
-      <c r="D704" t="inlineStr"/>
-      <c r="E704" t="inlineStr"/>
-      <c r="F704" t="inlineStr"/>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr"/>
-      <c r="D705" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E705" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F705" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMJAN</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr"/>
-      <c r="D706" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="E706" t="inlineStr"/>
-      <c r="F706" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr"/>
-      <c r="D707" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E707" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F707" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/22</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr"/>
-      <c r="D708" t="inlineStr"/>
-      <c r="E708" t="inlineStr"/>
-      <c r="F708" t="inlineStr"/>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirJAN</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr"/>
-      <c r="D709" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E709" t="inlineStr"/>
-      <c r="F709" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr"/>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E711" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F711" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr"/>
-      <c r="D712" t="inlineStr">
-        <is>
-          <t>-5.5%</t>
-        </is>
-      </c>
-      <c r="E712" t="inlineStr"/>
-      <c r="F712" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr"/>
-      <c r="D713" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="E713" t="inlineStr"/>
-      <c r="F713" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr"/>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr"/>
-      <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr">
-        <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
-        </is>
-      </c>
-      <c r="C715" t="inlineStr"/>
-      <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr">
-        <is>
-          <t>$50 million</t>
-        </is>
-      </c>
-      <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B716" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexFEB</t>
-        </is>
-      </c>
-      <c r="C716" t="inlineStr"/>
-      <c r="D716" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E716" t="inlineStr"/>
-      <c r="F716" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B717" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C717" t="inlineStr"/>
-      <c r="D717" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="E717" t="inlineStr"/>
-      <c r="F717" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C718" t="inlineStr"/>
-      <c r="D718" t="inlineStr"/>
-      <c r="E718" t="inlineStr"/>
-      <c r="F718" t="inlineStr"/>
-      <c r="G718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B719" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C719" t="inlineStr"/>
-      <c r="D719" t="inlineStr"/>
-      <c r="E719" t="inlineStr"/>
-      <c r="F719" t="inlineStr"/>
-      <c r="G719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B720" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/27</t>
-        </is>
-      </c>
-      <c r="C720" t="inlineStr"/>
-      <c r="D720" t="inlineStr"/>
-      <c r="E720" t="inlineStr"/>
-      <c r="F720" t="inlineStr"/>
-      <c r="G720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B721" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/27</t>
-        </is>
-      </c>
-      <c r="C721" t="inlineStr"/>
-      <c r="D721" t="inlineStr"/>
-      <c r="E721" t="inlineStr"/>
-      <c r="F721" t="inlineStr"/>
-      <c r="G721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/26</t>
-        </is>
-      </c>
-      <c r="C722" t="inlineStr"/>
-      <c r="D722" t="inlineStr"/>
-      <c r="E722" t="inlineStr"/>
-      <c r="F722" t="inlineStr"/>
-      <c r="G722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>Friday February 28 2025</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr"/>
-      <c r="C723" t="inlineStr"/>
-      <c r="D723" t="inlineStr"/>
-      <c r="E723" t="inlineStr"/>
-      <c r="F723" t="inlineStr"/>
-      <c r="G723" t="inlineStr"/>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C724" t="inlineStr"/>
-      <c r="D724" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E724" t="inlineStr"/>
-      <c r="F724" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G724" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>Personal Income MoMJAN</t>
-        </is>
-      </c>
-      <c r="C725" t="inlineStr"/>
-      <c r="D725" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E725" t="inlineStr"/>
-      <c r="F725" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G725" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMJAN</t>
-        </is>
-      </c>
-      <c r="C726" t="inlineStr"/>
-      <c r="D726" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E726" t="inlineStr"/>
-      <c r="F726" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G726" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvJAN</t>
-        </is>
-      </c>
-      <c r="C727" t="inlineStr"/>
-      <c r="D727" t="inlineStr">
-        <is>
-          <t>$-122.11B</t>
-        </is>
-      </c>
-      <c r="E727" t="inlineStr"/>
-      <c r="F727" t="inlineStr">
-        <is>
-          <t>$ -126.0B</t>
-        </is>
-      </c>
-      <c r="G727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C728" t="inlineStr"/>
-      <c r="D728" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E728" t="inlineStr"/>
-      <c r="F728" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G728" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYJAN</t>
-        </is>
-      </c>
-      <c r="C729" t="inlineStr"/>
-      <c r="D729" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E729" t="inlineStr"/>
-      <c r="F729" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
-        </is>
-      </c>
-      <c r="C730" t="inlineStr"/>
-      <c r="D730" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E730" t="inlineStr"/>
-      <c r="F730" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B731" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvJAN</t>
-        </is>
-      </c>
-      <c r="C731" t="inlineStr"/>
-      <c r="D731" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E731" t="inlineStr"/>
-      <c r="F731" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYJAN</t>
-        </is>
-      </c>
-      <c r="C732" t="inlineStr"/>
-      <c r="D732" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E732" t="inlineStr"/>
-      <c r="F732" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>Chicago PMIFEB</t>
-        </is>
-      </c>
-      <c r="C733" t="inlineStr"/>
-      <c r="D733" t="inlineStr">
-        <is>
-          <t>39.5</t>
-        </is>
-      </c>
-      <c r="E733" t="inlineStr"/>
-      <c r="F733" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="G733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/28</t>
-        </is>
-      </c>
-      <c r="C734" t="inlineStr"/>
-      <c r="D734" t="inlineStr"/>
-      <c r="E734" t="inlineStr"/>
-      <c r="F734" t="inlineStr"/>
-      <c r="G734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B735" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/28</t>
-        </is>
-      </c>
-      <c r="C735" t="inlineStr"/>
-      <c r="D735" t="inlineStr"/>
-      <c r="E735" t="inlineStr"/>
-      <c r="F735" t="inlineStr"/>
-      <c r="G735" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-28.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G735"/>
+  <dimension ref="A1:G670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16422,10 +16422,8 @@
           <t>220.0K</t>
         </is>
       </c>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G607" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="608">
@@ -16459,10 +16457,8 @@
           <t>18</t>
         </is>
       </c>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G608" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="609">
@@ -16496,10 +16492,8 @@
           <t>1879.0K</t>
         </is>
       </c>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="610">
@@ -16529,10 +16523,8 @@
           <t>219.0K</t>
         </is>
       </c>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="611">
@@ -16558,10 +16550,8 @@
       </c>
       <c r="E611" t="inlineStr"/>
       <c r="F611" t="inlineStr"/>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -16587,10 +16577,8 @@
       </c>
       <c r="E612" t="inlineStr"/>
       <c r="F612" t="inlineStr"/>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -16616,10 +16604,8 @@
       </c>
       <c r="E613" t="inlineStr"/>
       <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -16645,10 +16631,8 @@
       </c>
       <c r="E614" t="inlineStr"/>
       <c r="F614" t="inlineStr"/>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -16674,10 +16658,8 @@
       </c>
       <c r="E615" t="inlineStr"/>
       <c r="F615" t="inlineStr"/>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -16695,10 +16677,8 @@
       <c r="D616" t="inlineStr"/>
       <c r="E616" t="inlineStr"/>
       <c r="F616" t="inlineStr"/>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G616" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="617">
@@ -16732,10 +16712,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -16765,10 +16743,8 @@
         </is>
       </c>
       <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -16794,10 +16770,8 @@
       </c>
       <c r="E619" t="inlineStr"/>
       <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -16823,10 +16797,8 @@
       </c>
       <c r="E620" t="inlineStr"/>
       <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -16856,10 +16828,8 @@
         </is>
       </c>
       <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="622">
@@ -16889,10 +16859,8 @@
         </is>
       </c>
       <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="623">
@@ -16918,10 +16886,8 @@
       </c>
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -16947,10 +16913,8 @@
       </c>
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
@@ -16976,10 +16940,8 @@
       </c>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="626">
@@ -17005,10 +16967,8 @@
       </c>
       <c r="E626" t="inlineStr"/>
       <c r="F626" t="inlineStr"/>
-      <c r="G626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="627">
@@ -17034,10 +16994,8 @@
       </c>
       <c r="E627" t="inlineStr"/>
       <c r="F627" t="inlineStr"/>
-      <c r="G627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G627" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="628">
@@ -17067,10 +17025,8 @@
         </is>
       </c>
       <c r="F628" t="inlineStr"/>
-      <c r="G628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G628" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="629">
@@ -17096,10 +17052,8 @@
       </c>
       <c r="E629" t="inlineStr"/>
       <c r="F629" t="inlineStr"/>
-      <c r="G629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G629" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="630">
@@ -17125,10 +17079,8 @@
       </c>
       <c r="E630" t="inlineStr"/>
       <c r="F630" t="inlineStr"/>
-      <c r="G630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="631">
@@ -17154,10 +17106,8 @@
       </c>
       <c r="E631" t="inlineStr"/>
       <c r="F631" t="inlineStr"/>
-      <c r="G631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="632">
@@ -17175,10 +17125,8 @@
       <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr"/>
       <c r="F632" t="inlineStr"/>
-      <c r="G632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="633">
@@ -17200,10 +17148,8 @@
       </c>
       <c r="E633" t="inlineStr"/>
       <c r="F633" t="inlineStr"/>
-      <c r="G633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G633" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="634">
@@ -17221,10 +17167,8 @@
       <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr"/>
       <c r="F634" t="inlineStr"/>
-      <c r="G634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="635">
@@ -17246,10 +17190,8 @@
       </c>
       <c r="E635" t="inlineStr"/>
       <c r="F635" t="inlineStr"/>
-      <c r="G635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -17267,46 +17209,64 @@
       <c r="D636" t="inlineStr"/>
       <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr"/>
-      <c r="G636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B637" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>GDP Price Index QoQ 2nd EstQ4</t>
+        </is>
+      </c>
       <c r="C637" t="inlineStr"/>
-      <c r="D637" t="inlineStr"/>
-      <c r="E637" t="inlineStr"/>
-      <c r="F637" t="inlineStr"/>
-      <c r="G637" t="inlineStr"/>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
+          <t>Initial Jobless ClaimsFEB/22</t>
         </is>
       </c>
       <c r="C638" t="inlineStr"/>
       <c r="D638" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>219K</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
       <c r="F638" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>225.0K</t>
         </is>
       </c>
       <c r="G638" t="inlineStr">
@@ -17318,189 +17278,177 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
+          <t>Continuing Jobless ClaimsFEB/15</t>
         </is>
       </c>
       <c r="C639" t="inlineStr"/>
       <c r="D639" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
+          <t>1869K</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr"/>
       <c r="F639" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>1874.0K</t>
         </is>
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
+          <t>Core PCE Prices QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C640" t="inlineStr"/>
       <c r="D640" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Existing Home SalesJAN</t>
+          <t>Durable Goods Orders ex Defense MoMJAN</t>
         </is>
       </c>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr">
         <is>
-          <t>4.24M</t>
-        </is>
-      </c>
-      <c r="E641" t="inlineStr">
-        <is>
-          <t>4.12M</t>
-        </is>
-      </c>
+          <t>-2.4%</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr"/>
       <c r="F641" t="inlineStr">
         <is>
-          <t>4.16M</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMJAN</t>
+          <t>GDP Sales QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E642" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
+          <t>Jobless Claims 4-week AverageFEB/22</t>
         </is>
       </c>
       <c r="C643" t="inlineStr"/>
       <c r="D643" t="inlineStr">
         <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E643" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
+          <t>215.25K</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr"/>
       <c r="F643" t="inlineStr">
         <is>
-          <t>67.8</t>
+          <t>220.0K</t>
         </is>
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
+          <t>Non Defense Goods Orders Ex AirJAN</t>
         </is>
       </c>
       <c r="C644" t="inlineStr"/>
       <c r="D644" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E644" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr"/>
       <c r="F644" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G644" t="inlineStr">
@@ -17512,28 +17460,28 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
+          <t>PCE Prices QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C645" t="inlineStr"/>
       <c r="D645" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
@@ -17545,28 +17493,28 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalFEB</t>
+          <t>Real Consumer Spending QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C646" t="inlineStr"/>
       <c r="D646" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G646" t="inlineStr">
@@ -17583,46 +17531,50 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
+          <t>Pending Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C647" t="inlineStr"/>
       <c r="D647" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E647" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+          <t>-5.5%</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr"/>
       <c r="F647" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Fed Jefferson Speech</t>
+          <t>Pending Home Sales YoYJAN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr"/>
-      <c r="D648" t="inlineStr"/>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
       <c r="E648" t="inlineStr"/>
-      <c r="F648" t="inlineStr"/>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
       <c r="G648" t="inlineStr">
         <is>
           <t>2</t>
@@ -17632,20 +17584,16 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/21</t>
         </is>
       </c>
       <c r="C649" t="inlineStr"/>
-      <c r="D649" t="inlineStr">
-        <is>
-          <t>481</t>
-        </is>
-      </c>
+      <c r="D649" t="inlineStr"/>
       <c r="E649" t="inlineStr"/>
       <c r="F649" t="inlineStr"/>
       <c r="G649" t="inlineStr">
@@ -17657,21 +17605,21 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
+          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
         </is>
       </c>
       <c r="C650" t="inlineStr"/>
-      <c r="D650" t="inlineStr">
-        <is>
-          <t>588</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr"/>
+      <c r="D650" t="inlineStr"/>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>$50 million</t>
+        </is>
+      </c>
       <c r="F650" t="inlineStr"/>
       <c r="G650" t="inlineStr">
         <is>
@@ -17682,115 +17630,143 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Saturday February 22 2025</t>
-        </is>
-      </c>
-      <c r="B651" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Kansas Fed Composite IndexFEB</t>
+        </is>
+      </c>
       <c r="C651" t="inlineStr"/>
-      <c r="D651" t="inlineStr"/>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="E651" t="inlineStr"/>
-      <c r="F651" t="inlineStr"/>
-      <c r="G651" t="inlineStr"/>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>Sunday February 23 2025</t>
-        </is>
-      </c>
-      <c r="B652" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Kansas Fed Manufacturing IndexFEB</t>
+        </is>
+      </c>
       <c r="C652" t="inlineStr"/>
-      <c r="D652" t="inlineStr"/>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
       <c r="E652" t="inlineStr"/>
-      <c r="F652" t="inlineStr"/>
-      <c r="G652" t="inlineStr"/>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>Monday February 24 2025</t>
-        </is>
-      </c>
-      <c r="B653" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C653" t="inlineStr"/>
       <c r="D653" t="inlineStr"/>
       <c r="E653" t="inlineStr"/>
       <c r="F653" t="inlineStr"/>
-      <c r="G653" t="inlineStr"/>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C654" t="inlineStr"/>
-      <c r="D654" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
+      <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr"/>
-      <c r="F654" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
+      <c r="F654" t="inlineStr"/>
       <c r="G654" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexFEB</t>
+          <t>15-Year Mortgage RateFEB/27</t>
         </is>
       </c>
       <c r="C655" t="inlineStr"/>
       <c r="D655" t="inlineStr">
         <is>
-          <t>14.1</t>
+          <t>6.04%</t>
         </is>
       </c>
       <c r="E655" t="inlineStr"/>
-      <c r="F655" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
+      <c r="F655" t="inlineStr"/>
       <c r="G655" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>30-Year Mortgage RateFEB/27</t>
         </is>
       </c>
       <c r="C656" t="inlineStr"/>
       <c r="D656" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>6.85%</t>
         </is>
       </c>
       <c r="E656" t="inlineStr"/>
@@ -17804,20 +17780,16 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Fed Balance SheetFEB/26</t>
         </is>
       </c>
       <c r="C657" t="inlineStr"/>
-      <c r="D657" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
+      <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr"/>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr">
@@ -17829,133 +17801,145 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
+          <t>Friday February 28 2025</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr"/>
       <c r="C658" t="inlineStr"/>
-      <c r="D658" t="inlineStr">
-        <is>
-          <t>4.211%</t>
-        </is>
-      </c>
+      <c r="D658" t="inlineStr"/>
       <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Tuesday February 25 2025</t>
-        </is>
-      </c>
-      <c r="B659" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Core PCE Price Index MoMJAN</t>
+        </is>
+      </c>
       <c r="C659" t="inlineStr"/>
-      <c r="D659" t="inlineStr"/>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E659" t="inlineStr"/>
-      <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr"/>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/22</t>
+          <t>Personal Income MoMJAN</t>
         </is>
       </c>
       <c r="C660" t="inlineStr"/>
       <c r="D660" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E660" t="inlineStr"/>
-      <c r="F660" t="inlineStr"/>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYDEC</t>
+          <t>Personal Spending MoMJAN</t>
         </is>
       </c>
       <c r="C661" t="inlineStr"/>
       <c r="D661" t="inlineStr">
         <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="E661" t="inlineStr"/>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>House Price IndexDEC</t>
+          <t>Goods Trade Balance AdvJAN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr"/>
       <c r="D662" t="inlineStr">
         <is>
-          <t>433.4</t>
+          <t>$-122.11B</t>
         </is>
       </c>
       <c r="E662" t="inlineStr"/>
       <c r="F662" t="inlineStr">
         <is>
-          <t>434.3</t>
+          <t>$ -126.0B</t>
         </is>
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>House Price Index MoMDEC</t>
+          <t>PCE Price Index MoMJAN</t>
         </is>
       </c>
       <c r="C663" t="inlineStr"/>
@@ -17967,53 +17951,53 @@
       <c r="E663" t="inlineStr"/>
       <c r="F663" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>PCE Price Index YoYJAN</t>
         </is>
       </c>
       <c r="C664" t="inlineStr"/>
       <c r="D664" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="E664" t="inlineStr"/>
       <c r="F664" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMDEC</t>
+          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
         </is>
       </c>
       <c r="C665" t="inlineStr"/>
@@ -18025,36 +18009,36 @@
       <c r="E665" t="inlineStr"/>
       <c r="F665" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceFEB</t>
+          <t>Wholesale Inventories MoM AdvJAN</t>
         </is>
       </c>
       <c r="C666" t="inlineStr"/>
       <c r="D666" t="inlineStr">
         <is>
-          <t>104.1</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E666" t="inlineStr"/>
       <c r="F666" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G666" t="inlineStr">
@@ -18066,24 +18050,24 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexFEB</t>
+          <t>Core PCE Price Index YoYJAN</t>
         </is>
       </c>
       <c r="C667" t="inlineStr"/>
       <c r="D667" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E667" t="inlineStr"/>
       <c r="F667" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G667" t="inlineStr">
@@ -18095,55 +18079,47 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexFEB</t>
+          <t>Chicago PMIFEB</t>
         </is>
       </c>
       <c r="C668" t="inlineStr"/>
       <c r="D668" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>39.5</t>
         </is>
       </c>
       <c r="E668" t="inlineStr"/>
       <c r="F668" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexFEB</t>
+          <t>Baker Hughes Oil Rig CountFEB/28</t>
         </is>
       </c>
       <c r="C669" t="inlineStr"/>
-      <c r="D669" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="D669" t="inlineStr"/>
       <c r="E669" t="inlineStr"/>
-      <c r="F669" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="F669" t="inlineStr"/>
       <c r="G669" t="inlineStr">
         <is>
           <t>3</t>
@@ -18153,1712 +18129,19 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexFEB</t>
+          <t>Baker Hughes Total Rigs CountFEB/28</t>
         </is>
       </c>
       <c r="C670" t="inlineStr"/>
-      <c r="D670" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
+      <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr"/>
-      <c r="F670" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="F670" t="inlineStr"/>
       <c r="G670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexFEB</t>
-        </is>
-      </c>
-      <c r="C671" t="inlineStr"/>
-      <c r="D671" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="E671" t="inlineStr"/>
-      <c r="F671" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C672" t="inlineStr"/>
-      <c r="D672" t="inlineStr">
-        <is>
-          <t>4.33%</t>
-        </is>
-      </c>
-      <c r="E672" t="inlineStr"/>
-      <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>Money SupplyJAN</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr"/>
-      <c r="D673" t="inlineStr">
-        <is>
-          <t>$21.53T</t>
-        </is>
-      </c>
-      <c r="E673" t="inlineStr"/>
-      <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C674" t="inlineStr"/>
-      <c r="D674" t="inlineStr">
-        <is>
-          <t>3.34M</t>
-        </is>
-      </c>
-      <c r="E674" t="inlineStr"/>
-      <c r="F674" t="inlineStr"/>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>Wednesday February 26 2025</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr"/>
-      <c r="C675" t="inlineStr"/>
-      <c r="D675" t="inlineStr"/>
-      <c r="E675" t="inlineStr"/>
-      <c r="F675" t="inlineStr"/>
-      <c r="G675" t="inlineStr"/>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/21</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr"/>
-      <c r="D676" t="inlineStr">
-        <is>
-          <t>6.93%</t>
-        </is>
-      </c>
-      <c r="E676" t="inlineStr"/>
-      <c r="F676" t="inlineStr"/>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/21</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr"/>
-      <c r="D677" t="inlineStr">
-        <is>
-          <t>-6.6%</t>
-        </is>
-      </c>
-      <c r="E677" t="inlineStr"/>
-      <c r="F677" t="inlineStr"/>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/21</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr"/>
-      <c r="D678" t="inlineStr">
-        <is>
-          <t>214.9</t>
-        </is>
-      </c>
-      <c r="E678" t="inlineStr"/>
-      <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/21</t>
-        </is>
-      </c>
-      <c r="C679" t="inlineStr"/>
-      <c r="D679" t="inlineStr">
-        <is>
-          <t>593.6</t>
-        </is>
-      </c>
-      <c r="E679" t="inlineStr"/>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/21</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr"/>
-      <c r="D680" t="inlineStr">
-        <is>
-          <t>144.0</t>
-        </is>
-      </c>
-      <c r="E680" t="inlineStr"/>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>New Home SalesJAN</t>
-        </is>
-      </c>
-      <c r="C681" t="inlineStr"/>
-      <c r="D681" t="inlineStr">
-        <is>
-          <t>0.698M</t>
-        </is>
-      </c>
-      <c r="E681" t="inlineStr"/>
-      <c r="F681" t="inlineStr">
-        <is>
-          <t>0.68M</t>
-        </is>
-      </c>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr"/>
-      <c r="D682" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E682" t="inlineStr"/>
-      <c r="F682" t="inlineStr">
-        <is>
-          <t>-2.6%</t>
-        </is>
-      </c>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C683" t="inlineStr"/>
-      <c r="D683" t="inlineStr">
-        <is>
-          <t>4.633M</t>
-        </is>
-      </c>
-      <c r="E683" t="inlineStr"/>
-      <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr"/>
-      <c r="D684" t="inlineStr"/>
-      <c r="E684" t="inlineStr"/>
-      <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C685" t="inlineStr"/>
-      <c r="D685" t="inlineStr">
-        <is>
-          <t>-0.961M</t>
-        </is>
-      </c>
-      <c r="E685" t="inlineStr"/>
-      <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr"/>
-      <c r="D686" t="inlineStr">
-        <is>
-          <t>1.472M</t>
-        </is>
-      </c>
-      <c r="E686" t="inlineStr"/>
-      <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr"/>
-      <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr"/>
-      <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr"/>
-      <c r="D688" t="inlineStr"/>
-      <c r="E688" t="inlineStr"/>
-      <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr"/>
-      <c r="D689" t="inlineStr"/>
-      <c r="E689" t="inlineStr"/>
-      <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C690" t="inlineStr"/>
-      <c r="D690" t="inlineStr"/>
-      <c r="E690" t="inlineStr"/>
-      <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr"/>
-      <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr"/>
-      <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr"/>
-      <c r="D692" t="inlineStr">
-        <is>
-          <t>4.215%</t>
-        </is>
-      </c>
-      <c r="E692" t="inlineStr"/>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr"/>
-      <c r="D693" t="inlineStr"/>
-      <c r="E693" t="inlineStr"/>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr"/>
-      <c r="D694" t="inlineStr">
-        <is>
-          <t>0.098%</t>
-        </is>
-      </c>
-      <c r="E694" t="inlineStr"/>
-      <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr"/>
-      <c r="D695" t="inlineStr">
-        <is>
-          <t>4.457%</t>
-        </is>
-      </c>
-      <c r="E695" t="inlineStr"/>
-      <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr"/>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>Building Permits FinalJAN</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr"/>
-      <c r="D696" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E696" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
-      <c r="F696" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr"/>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalJAN</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr"/>
-      <c r="D697" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E697" t="inlineStr"/>
-      <c r="F697" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>Thursday February 27 2025</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr"/>
-      <c r="C698" t="inlineStr"/>
-      <c r="D698" t="inlineStr"/>
-      <c r="E698" t="inlineStr"/>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr"/>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMJAN</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr"/>
-      <c r="D699" t="inlineStr">
-        <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
-      <c r="E699" t="inlineStr"/>
-      <c r="F699" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr"/>
-      <c r="D700" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E700" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F700" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMJAN</t>
-        </is>
-      </c>
-      <c r="C701" t="inlineStr"/>
-      <c r="D701" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E701" t="inlineStr"/>
-      <c r="F701" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr"/>
-      <c r="D702" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E702" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F702" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/22</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr"/>
-      <c r="D703" t="inlineStr">
-        <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="E703" t="inlineStr"/>
-      <c r="F703" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr"/>
-      <c r="D704" t="inlineStr">
-        <is>
-          <t>1869K</t>
-        </is>
-      </c>
-      <c r="E704" t="inlineStr"/>
-      <c r="F704" t="inlineStr">
-        <is>
-          <t>1874.0K</t>
-        </is>
-      </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr"/>
-      <c r="D705" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E705" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F705" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMJAN</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr"/>
-      <c r="D706" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="E706" t="inlineStr"/>
-      <c r="F706" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr"/>
-      <c r="D707" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E707" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F707" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/22</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr"/>
-      <c r="D708" t="inlineStr">
-        <is>
-          <t>215.25K</t>
-        </is>
-      </c>
-      <c r="E708" t="inlineStr"/>
-      <c r="F708" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirJAN</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr"/>
-      <c r="D709" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E709" t="inlineStr"/>
-      <c r="F709" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr"/>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E711" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F711" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr"/>
-      <c r="D712" t="inlineStr">
-        <is>
-          <t>-5.5%</t>
-        </is>
-      </c>
-      <c r="E712" t="inlineStr"/>
-      <c r="F712" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr"/>
-      <c r="D713" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="E713" t="inlineStr"/>
-      <c r="F713" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr"/>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr"/>
-      <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr">
-        <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
-        </is>
-      </c>
-      <c r="C715" t="inlineStr"/>
-      <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr">
-        <is>
-          <t>$50 million</t>
-        </is>
-      </c>
-      <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B716" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexFEB</t>
-        </is>
-      </c>
-      <c r="C716" t="inlineStr"/>
-      <c r="D716" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E716" t="inlineStr"/>
-      <c r="F716" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B717" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C717" t="inlineStr"/>
-      <c r="D717" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="E717" t="inlineStr"/>
-      <c r="F717" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C718" t="inlineStr"/>
-      <c r="D718" t="inlineStr"/>
-      <c r="E718" t="inlineStr"/>
-      <c r="F718" t="inlineStr"/>
-      <c r="G718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B719" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C719" t="inlineStr"/>
-      <c r="D719" t="inlineStr"/>
-      <c r="E719" t="inlineStr"/>
-      <c r="F719" t="inlineStr"/>
-      <c r="G719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B720" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/27</t>
-        </is>
-      </c>
-      <c r="C720" t="inlineStr"/>
-      <c r="D720" t="inlineStr">
-        <is>
-          <t>6.04%</t>
-        </is>
-      </c>
-      <c r="E720" t="inlineStr"/>
-      <c r="F720" t="inlineStr"/>
-      <c r="G720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B721" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/27</t>
-        </is>
-      </c>
-      <c r="C721" t="inlineStr"/>
-      <c r="D721" t="inlineStr">
-        <is>
-          <t>6.85%</t>
-        </is>
-      </c>
-      <c r="E721" t="inlineStr"/>
-      <c r="F721" t="inlineStr"/>
-      <c r="G721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/26</t>
-        </is>
-      </c>
-      <c r="C722" t="inlineStr"/>
-      <c r="D722" t="inlineStr"/>
-      <c r="E722" t="inlineStr"/>
-      <c r="F722" t="inlineStr"/>
-      <c r="G722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>Friday February 28 2025</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr"/>
-      <c r="C723" t="inlineStr"/>
-      <c r="D723" t="inlineStr"/>
-      <c r="E723" t="inlineStr"/>
-      <c r="F723" t="inlineStr"/>
-      <c r="G723" t="inlineStr"/>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C724" t="inlineStr"/>
-      <c r="D724" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E724" t="inlineStr"/>
-      <c r="F724" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G724" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>Personal Income MoMJAN</t>
-        </is>
-      </c>
-      <c r="C725" t="inlineStr"/>
-      <c r="D725" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E725" t="inlineStr"/>
-      <c r="F725" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G725" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMJAN</t>
-        </is>
-      </c>
-      <c r="C726" t="inlineStr"/>
-      <c r="D726" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E726" t="inlineStr"/>
-      <c r="F726" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G726" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvJAN</t>
-        </is>
-      </c>
-      <c r="C727" t="inlineStr"/>
-      <c r="D727" t="inlineStr">
-        <is>
-          <t>$-122.11B</t>
-        </is>
-      </c>
-      <c r="E727" t="inlineStr"/>
-      <c r="F727" t="inlineStr">
-        <is>
-          <t>$ -126.0B</t>
-        </is>
-      </c>
-      <c r="G727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C728" t="inlineStr"/>
-      <c r="D728" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E728" t="inlineStr"/>
-      <c r="F728" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G728" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYJAN</t>
-        </is>
-      </c>
-      <c r="C729" t="inlineStr"/>
-      <c r="D729" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E729" t="inlineStr"/>
-      <c r="F729" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
-        </is>
-      </c>
-      <c r="C730" t="inlineStr"/>
-      <c r="D730" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E730" t="inlineStr"/>
-      <c r="F730" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B731" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvJAN</t>
-        </is>
-      </c>
-      <c r="C731" t="inlineStr"/>
-      <c r="D731" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E731" t="inlineStr"/>
-      <c r="F731" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYJAN</t>
-        </is>
-      </c>
-      <c r="C732" t="inlineStr"/>
-      <c r="D732" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E732" t="inlineStr"/>
-      <c r="F732" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>Chicago PMIFEB</t>
-        </is>
-      </c>
-      <c r="C733" t="inlineStr"/>
-      <c r="D733" t="inlineStr">
-        <is>
-          <t>39.5</t>
-        </is>
-      </c>
-      <c r="E733" t="inlineStr"/>
-      <c r="F733" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="G733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/28</t>
-        </is>
-      </c>
-      <c r="C734" t="inlineStr"/>
-      <c r="D734" t="inlineStr"/>
-      <c r="E734" t="inlineStr"/>
-      <c r="F734" t="inlineStr"/>
-      <c r="G734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B735" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/28</t>
-        </is>
-      </c>
-      <c r="C735" t="inlineStr"/>
-      <c r="D735" t="inlineStr"/>
-      <c r="E735" t="inlineStr"/>
-      <c r="F735" t="inlineStr"/>
-      <c r="G735" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-28.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G735"/>
+  <dimension ref="A1:G670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16422,10 +16422,8 @@
           <t>220.0K</t>
         </is>
       </c>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G607" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="608">
@@ -16459,10 +16457,8 @@
           <t>18</t>
         </is>
       </c>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G608" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="609">
@@ -16496,10 +16492,8 @@
           <t>1879.0K</t>
         </is>
       </c>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G609" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="610">
@@ -16529,10 +16523,8 @@
           <t>219.0K</t>
         </is>
       </c>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G610" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="611">
@@ -16558,10 +16550,8 @@
       </c>
       <c r="E611" t="inlineStr"/>
       <c r="F611" t="inlineStr"/>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G611" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="612">
@@ -16587,10 +16577,8 @@
       </c>
       <c r="E612" t="inlineStr"/>
       <c r="F612" t="inlineStr"/>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G612" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="613">
@@ -16616,10 +16604,8 @@
       </c>
       <c r="E613" t="inlineStr"/>
       <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G613" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="614">
@@ -16645,10 +16631,8 @@
       </c>
       <c r="E614" t="inlineStr"/>
       <c r="F614" t="inlineStr"/>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G614" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="615">
@@ -16674,10 +16658,8 @@
       </c>
       <c r="E615" t="inlineStr"/>
       <c r="F615" t="inlineStr"/>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G615" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="616">
@@ -16695,10 +16677,8 @@
       <c r="D616" t="inlineStr"/>
       <c r="E616" t="inlineStr"/>
       <c r="F616" t="inlineStr"/>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G616" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="617">
@@ -16732,10 +16712,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G617" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="618">
@@ -16765,10 +16743,8 @@
         </is>
       </c>
       <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G618" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="619">
@@ -16794,10 +16770,8 @@
       </c>
       <c r="E619" t="inlineStr"/>
       <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G619" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="620">
@@ -16823,10 +16797,8 @@
       </c>
       <c r="E620" t="inlineStr"/>
       <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G620" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="621">
@@ -16856,10 +16828,8 @@
         </is>
       </c>
       <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G621" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="622">
@@ -16889,10 +16859,8 @@
         </is>
       </c>
       <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G622" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="623">
@@ -16918,10 +16886,8 @@
       </c>
       <c r="E623" t="inlineStr"/>
       <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G623" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="624">
@@ -16947,10 +16913,8 @@
       </c>
       <c r="E624" t="inlineStr"/>
       <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G624" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="625">
@@ -16976,10 +16940,8 @@
       </c>
       <c r="E625" t="inlineStr"/>
       <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G625" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="626">
@@ -17005,10 +16967,8 @@
       </c>
       <c r="E626" t="inlineStr"/>
       <c r="F626" t="inlineStr"/>
-      <c r="G626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G626" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="627">
@@ -17034,10 +16994,8 @@
       </c>
       <c r="E627" t="inlineStr"/>
       <c r="F627" t="inlineStr"/>
-      <c r="G627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G627" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="628">
@@ -17067,10 +17025,8 @@
         </is>
       </c>
       <c r="F628" t="inlineStr"/>
-      <c r="G628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G628" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="629">
@@ -17096,10 +17052,8 @@
       </c>
       <c r="E629" t="inlineStr"/>
       <c r="F629" t="inlineStr"/>
-      <c r="G629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G629" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="630">
@@ -17125,10 +17079,8 @@
       </c>
       <c r="E630" t="inlineStr"/>
       <c r="F630" t="inlineStr"/>
-      <c r="G630" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G630" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="631">
@@ -17154,10 +17106,8 @@
       </c>
       <c r="E631" t="inlineStr"/>
       <c r="F631" t="inlineStr"/>
-      <c r="G631" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G631" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="632">
@@ -17175,10 +17125,8 @@
       <c r="D632" t="inlineStr"/>
       <c r="E632" t="inlineStr"/>
       <c r="F632" t="inlineStr"/>
-      <c r="G632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G632" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="633">
@@ -17204,10 +17152,8 @@
       </c>
       <c r="E633" t="inlineStr"/>
       <c r="F633" t="inlineStr"/>
-      <c r="G633" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G633" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="634">
@@ -17225,10 +17171,8 @@
       <c r="D634" t="inlineStr"/>
       <c r="E634" t="inlineStr"/>
       <c r="F634" t="inlineStr"/>
-      <c r="G634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G634" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="635">
@@ -17250,10 +17194,8 @@
       </c>
       <c r="E635" t="inlineStr"/>
       <c r="F635" t="inlineStr"/>
-      <c r="G635" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G635" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="636">
@@ -17271,46 +17213,64 @@
       <c r="D636" t="inlineStr"/>
       <c r="E636" t="inlineStr"/>
       <c r="F636" t="inlineStr"/>
-      <c r="G636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G636" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B637" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>GDP Price Index QoQ 2nd EstQ4</t>
+        </is>
+      </c>
       <c r="C637" t="inlineStr"/>
-      <c r="D637" t="inlineStr"/>
-      <c r="E637" t="inlineStr"/>
-      <c r="F637" t="inlineStr"/>
-      <c r="G637" t="inlineStr"/>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
+          <t>Initial Jobless ClaimsFEB/22</t>
         </is>
       </c>
       <c r="C638" t="inlineStr"/>
       <c r="D638" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>219K</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
       <c r="F638" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>225.0K</t>
         </is>
       </c>
       <c r="G638" t="inlineStr">
@@ -17322,189 +17282,177 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
+          <t>Continuing Jobless ClaimsFEB/15</t>
         </is>
       </c>
       <c r="C639" t="inlineStr"/>
       <c r="D639" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>51.5</t>
-        </is>
-      </c>
+          <t>1869K</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr"/>
       <c r="F639" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>1874.0K</t>
         </is>
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
+          <t>Core PCE Prices QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C640" t="inlineStr"/>
       <c r="D640" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Existing Home SalesJAN</t>
+          <t>Durable Goods Orders ex Defense MoMJAN</t>
         </is>
       </c>
       <c r="C641" t="inlineStr"/>
       <c r="D641" t="inlineStr">
         <is>
-          <t>4.24M</t>
-        </is>
-      </c>
-      <c r="E641" t="inlineStr">
-        <is>
-          <t>4.12M</t>
-        </is>
-      </c>
+          <t>-2.4%</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr"/>
       <c r="F641" t="inlineStr">
         <is>
-          <t>4.16M</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMJAN</t>
+          <t>GDP Sales QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C642" t="inlineStr"/>
       <c r="D642" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E642" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
+          <t>Jobless Claims 4-week AverageFEB/22</t>
         </is>
       </c>
       <c r="C643" t="inlineStr"/>
       <c r="D643" t="inlineStr">
         <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E643" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
+          <t>215.25K</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr"/>
       <c r="F643" t="inlineStr">
         <is>
-          <t>67.8</t>
+          <t>220.0K</t>
         </is>
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
+          <t>Non Defense Goods Orders Ex AirJAN</t>
         </is>
       </c>
       <c r="C644" t="inlineStr"/>
       <c r="D644" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E644" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr"/>
       <c r="F644" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G644" t="inlineStr">
@@ -17516,28 +17464,28 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
+          <t>PCE Prices QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C645" t="inlineStr"/>
       <c r="D645" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
@@ -17549,28 +17497,28 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalFEB</t>
+          <t>Real Consumer Spending QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C646" t="inlineStr"/>
       <c r="D646" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G646" t="inlineStr">
@@ -17587,46 +17535,50 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
+          <t>Pending Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C647" t="inlineStr"/>
       <c r="D647" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E647" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+          <t>-5.5%</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr"/>
       <c r="F647" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Fed Jefferson Speech</t>
+          <t>Pending Home Sales YoYJAN</t>
         </is>
       </c>
       <c r="C648" t="inlineStr"/>
-      <c r="D648" t="inlineStr"/>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
       <c r="E648" t="inlineStr"/>
-      <c r="F648" t="inlineStr"/>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
       <c r="G648" t="inlineStr">
         <is>
           <t>2</t>
@@ -17636,20 +17588,16 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/21</t>
         </is>
       </c>
       <c r="C649" t="inlineStr"/>
-      <c r="D649" t="inlineStr">
-        <is>
-          <t>481</t>
-        </is>
-      </c>
+      <c r="D649" t="inlineStr"/>
       <c r="E649" t="inlineStr"/>
       <c r="F649" t="inlineStr"/>
       <c r="G649" t="inlineStr">
@@ -17661,21 +17609,21 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
+          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
         </is>
       </c>
       <c r="C650" t="inlineStr"/>
-      <c r="D650" t="inlineStr">
-        <is>
-          <t>588</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr"/>
+      <c r="D650" t="inlineStr"/>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>$50 million</t>
+        </is>
+      </c>
       <c r="F650" t="inlineStr"/>
       <c r="G650" t="inlineStr">
         <is>
@@ -17686,115 +17634,143 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Saturday February 22 2025</t>
-        </is>
-      </c>
-      <c r="B651" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Kansas Fed Composite IndexFEB</t>
+        </is>
+      </c>
       <c r="C651" t="inlineStr"/>
-      <c r="D651" t="inlineStr"/>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="E651" t="inlineStr"/>
-      <c r="F651" t="inlineStr"/>
-      <c r="G651" t="inlineStr"/>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>Sunday February 23 2025</t>
-        </is>
-      </c>
-      <c r="B652" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Kansas Fed Manufacturing IndexFEB</t>
+        </is>
+      </c>
       <c r="C652" t="inlineStr"/>
-      <c r="D652" t="inlineStr"/>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
       <c r="E652" t="inlineStr"/>
-      <c r="F652" t="inlineStr"/>
-      <c r="G652" t="inlineStr"/>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>Monday February 24 2025</t>
-        </is>
-      </c>
-      <c r="B653" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C653" t="inlineStr"/>
       <c r="D653" t="inlineStr"/>
       <c r="E653" t="inlineStr"/>
       <c r="F653" t="inlineStr"/>
-      <c r="G653" t="inlineStr"/>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexJAN</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C654" t="inlineStr"/>
-      <c r="D654" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
+      <c r="D654" t="inlineStr"/>
       <c r="E654" t="inlineStr"/>
-      <c r="F654" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
+      <c r="F654" t="inlineStr"/>
       <c r="G654" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexFEB</t>
+          <t>15-Year Mortgage RateFEB/27</t>
         </is>
       </c>
       <c r="C655" t="inlineStr"/>
       <c r="D655" t="inlineStr">
         <is>
-          <t>14.1</t>
+          <t>6.04%</t>
         </is>
       </c>
       <c r="E655" t="inlineStr"/>
-      <c r="F655" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
+      <c r="F655" t="inlineStr"/>
       <c r="G655" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>30-Year Mortgage RateFEB/27</t>
         </is>
       </c>
       <c r="C656" t="inlineStr"/>
       <c r="D656" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>6.85%</t>
         </is>
       </c>
       <c r="E656" t="inlineStr"/>
@@ -17808,20 +17784,16 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Fed Balance SheetFEB/26</t>
         </is>
       </c>
       <c r="C657" t="inlineStr"/>
-      <c r="D657" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
+      <c r="D657" t="inlineStr"/>
       <c r="E657" t="inlineStr"/>
       <c r="F657" t="inlineStr"/>
       <c r="G657" t="inlineStr">
@@ -17833,133 +17805,145 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
+          <t>Friday February 28 2025</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr"/>
       <c r="C658" t="inlineStr"/>
-      <c r="D658" t="inlineStr">
-        <is>
-          <t>4.211%</t>
-        </is>
-      </c>
+      <c r="D658" t="inlineStr"/>
       <c r="E658" t="inlineStr"/>
       <c r="F658" t="inlineStr"/>
-      <c r="G658" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Tuesday February 25 2025</t>
-        </is>
-      </c>
-      <c r="B659" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Core PCE Price Index MoMJAN</t>
+        </is>
+      </c>
       <c r="C659" t="inlineStr"/>
-      <c r="D659" t="inlineStr"/>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E659" t="inlineStr"/>
-      <c r="F659" t="inlineStr"/>
-      <c r="G659" t="inlineStr"/>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/22</t>
+          <t>Personal Income MoMJAN</t>
         </is>
       </c>
       <c r="C660" t="inlineStr"/>
       <c r="D660" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E660" t="inlineStr"/>
-      <c r="F660" t="inlineStr"/>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYDEC</t>
+          <t>Personal Spending MoMJAN</t>
         </is>
       </c>
       <c r="C661" t="inlineStr"/>
       <c r="D661" t="inlineStr">
         <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="E661" t="inlineStr"/>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>House Price IndexDEC</t>
+          <t>Goods Trade Balance AdvJAN</t>
         </is>
       </c>
       <c r="C662" t="inlineStr"/>
       <c r="D662" t="inlineStr">
         <is>
-          <t>433.4</t>
+          <t>$-122.11B</t>
         </is>
       </c>
       <c r="E662" t="inlineStr"/>
       <c r="F662" t="inlineStr">
         <is>
-          <t>434.3</t>
+          <t>$ -126.0B</t>
         </is>
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>House Price Index MoMDEC</t>
+          <t>PCE Price Index MoMJAN</t>
         </is>
       </c>
       <c r="C663" t="inlineStr"/>
@@ -17971,53 +17955,53 @@
       <c r="E663" t="inlineStr"/>
       <c r="F663" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>PCE Price Index YoYJAN</t>
         </is>
       </c>
       <c r="C664" t="inlineStr"/>
       <c r="D664" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="E664" t="inlineStr"/>
       <c r="F664" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMDEC</t>
+          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
         </is>
       </c>
       <c r="C665" t="inlineStr"/>
@@ -18029,40 +18013,36 @@
       <c r="E665" t="inlineStr"/>
       <c r="F665" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceFEB</t>
+          <t>Wholesale Inventories MoM AdvJAN</t>
         </is>
       </c>
       <c r="C666" t="inlineStr"/>
       <c r="D666" t="inlineStr">
         <is>
-          <t>104.1</t>
-        </is>
-      </c>
-      <c r="E666" t="inlineStr">
-        <is>
-          <t>102.1</t>
-        </is>
-      </c>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr"/>
       <c r="F666" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G666" t="inlineStr">
@@ -18074,24 +18054,24 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexFEB</t>
+          <t>Core PCE Price Index YoYJAN</t>
         </is>
       </c>
       <c r="C667" t="inlineStr"/>
       <c r="D667" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E667" t="inlineStr"/>
       <c r="F667" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G667" t="inlineStr">
@@ -18103,55 +18083,47 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexFEB</t>
+          <t>Chicago PMIFEB</t>
         </is>
       </c>
       <c r="C668" t="inlineStr"/>
       <c r="D668" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>39.5</t>
         </is>
       </c>
       <c r="E668" t="inlineStr"/>
       <c r="F668" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexFEB</t>
+          <t>Baker Hughes Oil Rig CountFEB/28</t>
         </is>
       </c>
       <c r="C669" t="inlineStr"/>
-      <c r="D669" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="D669" t="inlineStr"/>
       <c r="E669" t="inlineStr"/>
-      <c r="F669" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="F669" t="inlineStr"/>
       <c r="G669" t="inlineStr">
         <is>
           <t>3</t>
@@ -18161,1732 +18133,19 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexFEB</t>
+          <t>Baker Hughes Total Rigs CountFEB/28</t>
         </is>
       </c>
       <c r="C670" t="inlineStr"/>
-      <c r="D670" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
+      <c r="D670" t="inlineStr"/>
       <c r="E670" t="inlineStr"/>
-      <c r="F670" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="F670" t="inlineStr"/>
       <c r="G670" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B671" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexFEB</t>
-        </is>
-      </c>
-      <c r="C671" t="inlineStr"/>
-      <c r="D671" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="E671" t="inlineStr"/>
-      <c r="F671" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G671" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C672" t="inlineStr"/>
-      <c r="D672" t="inlineStr">
-        <is>
-          <t>4.33%</t>
-        </is>
-      </c>
-      <c r="E672" t="inlineStr"/>
-      <c r="F672" t="inlineStr"/>
-      <c r="G672" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>Money SupplyJAN</t>
-        </is>
-      </c>
-      <c r="C673" t="inlineStr"/>
-      <c r="D673" t="inlineStr">
-        <is>
-          <t>$21.53T</t>
-        </is>
-      </c>
-      <c r="E673" t="inlineStr"/>
-      <c r="F673" t="inlineStr"/>
-      <c r="G673" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C674" t="inlineStr"/>
-      <c r="D674" t="inlineStr">
-        <is>
-          <t>3.34M</t>
-        </is>
-      </c>
-      <c r="E674" t="inlineStr"/>
-      <c r="F674" t="inlineStr"/>
-      <c r="G674" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>Wednesday February 26 2025</t>
-        </is>
-      </c>
-      <c r="B675" t="inlineStr"/>
-      <c r="C675" t="inlineStr"/>
-      <c r="D675" t="inlineStr"/>
-      <c r="E675" t="inlineStr"/>
-      <c r="F675" t="inlineStr"/>
-      <c r="G675" t="inlineStr"/>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/21</t>
-        </is>
-      </c>
-      <c r="C676" t="inlineStr"/>
-      <c r="D676" t="inlineStr">
-        <is>
-          <t>6.93%</t>
-        </is>
-      </c>
-      <c r="E676" t="inlineStr"/>
-      <c r="F676" t="inlineStr"/>
-      <c r="G676" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/21</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr"/>
-      <c r="D677" t="inlineStr">
-        <is>
-          <t>-6.6%</t>
-        </is>
-      </c>
-      <c r="E677" t="inlineStr"/>
-      <c r="F677" t="inlineStr"/>
-      <c r="G677" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/21</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr"/>
-      <c r="D678" t="inlineStr">
-        <is>
-          <t>214.9</t>
-        </is>
-      </c>
-      <c r="E678" t="inlineStr"/>
-      <c r="F678" t="inlineStr"/>
-      <c r="G678" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/21</t>
-        </is>
-      </c>
-      <c r="C679" t="inlineStr"/>
-      <c r="D679" t="inlineStr">
-        <is>
-          <t>593.6</t>
-        </is>
-      </c>
-      <c r="E679" t="inlineStr"/>
-      <c r="F679" t="inlineStr"/>
-      <c r="G679" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/21</t>
-        </is>
-      </c>
-      <c r="C680" t="inlineStr"/>
-      <c r="D680" t="inlineStr">
-        <is>
-          <t>144.0</t>
-        </is>
-      </c>
-      <c r="E680" t="inlineStr"/>
-      <c r="F680" t="inlineStr"/>
-      <c r="G680" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>New Home SalesJAN</t>
-        </is>
-      </c>
-      <c r="C681" t="inlineStr"/>
-      <c r="D681" t="inlineStr">
-        <is>
-          <t>0.698M</t>
-        </is>
-      </c>
-      <c r="E681" t="inlineStr">
-        <is>
-          <t>0.69M</t>
-        </is>
-      </c>
-      <c r="F681" t="inlineStr">
-        <is>
-          <t>0.68M</t>
-        </is>
-      </c>
-      <c r="G681" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C682" t="inlineStr"/>
-      <c r="D682" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E682" t="inlineStr"/>
-      <c r="F682" t="inlineStr">
-        <is>
-          <t>-2.6%</t>
-        </is>
-      </c>
-      <c r="G682" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C683" t="inlineStr"/>
-      <c r="D683" t="inlineStr">
-        <is>
-          <t>4.633M</t>
-        </is>
-      </c>
-      <c r="E683" t="inlineStr"/>
-      <c r="F683" t="inlineStr"/>
-      <c r="G683" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C684" t="inlineStr"/>
-      <c r="D684" t="inlineStr">
-        <is>
-          <t>-0.151M</t>
-        </is>
-      </c>
-      <c r="E684" t="inlineStr"/>
-      <c r="F684" t="inlineStr"/>
-      <c r="G684" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C685" t="inlineStr"/>
-      <c r="D685" t="inlineStr">
-        <is>
-          <t>-0.961M</t>
-        </is>
-      </c>
-      <c r="E685" t="inlineStr"/>
-      <c r="F685" t="inlineStr"/>
-      <c r="G685" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C686" t="inlineStr"/>
-      <c r="D686" t="inlineStr">
-        <is>
-          <t>1.472M</t>
-        </is>
-      </c>
-      <c r="E686" t="inlineStr"/>
-      <c r="F686" t="inlineStr"/>
-      <c r="G686" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C687" t="inlineStr"/>
-      <c r="D687" t="inlineStr"/>
-      <c r="E687" t="inlineStr"/>
-      <c r="F687" t="inlineStr"/>
-      <c r="G687" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C688" t="inlineStr"/>
-      <c r="D688" t="inlineStr"/>
-      <c r="E688" t="inlineStr"/>
-      <c r="F688" t="inlineStr"/>
-      <c r="G688" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C689" t="inlineStr"/>
-      <c r="D689" t="inlineStr"/>
-      <c r="E689" t="inlineStr"/>
-      <c r="F689" t="inlineStr"/>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C690" t="inlineStr"/>
-      <c r="D690" t="inlineStr">
-        <is>
-          <t>-0.343M</t>
-        </is>
-      </c>
-      <c r="E690" t="inlineStr"/>
-      <c r="F690" t="inlineStr"/>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C691" t="inlineStr"/>
-      <c r="D691" t="inlineStr"/>
-      <c r="E691" t="inlineStr"/>
-      <c r="F691" t="inlineStr"/>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C692" t="inlineStr"/>
-      <c r="D692" t="inlineStr">
-        <is>
-          <t>4.215%</t>
-        </is>
-      </c>
-      <c r="E692" t="inlineStr"/>
-      <c r="F692" t="inlineStr"/>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C693" t="inlineStr"/>
-      <c r="D693" t="inlineStr"/>
-      <c r="E693" t="inlineStr"/>
-      <c r="F693" t="inlineStr"/>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C694" t="inlineStr"/>
-      <c r="D694" t="inlineStr">
-        <is>
-          <t>0.098%</t>
-        </is>
-      </c>
-      <c r="E694" t="inlineStr"/>
-      <c r="F694" t="inlineStr"/>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C695" t="inlineStr"/>
-      <c r="D695" t="inlineStr">
-        <is>
-          <t>4.457%</t>
-        </is>
-      </c>
-      <c r="E695" t="inlineStr"/>
-      <c r="F695" t="inlineStr"/>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr"/>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>Building Permits FinalJAN</t>
-        </is>
-      </c>
-      <c r="C696" t="inlineStr"/>
-      <c r="D696" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E696" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
-      <c r="F696" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr"/>
-      <c r="B697" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalJAN</t>
-        </is>
-      </c>
-      <c r="C697" t="inlineStr"/>
-      <c r="D697" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E697" t="inlineStr"/>
-      <c r="F697" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>Thursday February 27 2025</t>
-        </is>
-      </c>
-      <c r="B698" t="inlineStr"/>
-      <c r="C698" t="inlineStr"/>
-      <c r="D698" t="inlineStr"/>
-      <c r="E698" t="inlineStr"/>
-      <c r="F698" t="inlineStr"/>
-      <c r="G698" t="inlineStr"/>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMJAN</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr"/>
-      <c r="D699" t="inlineStr">
-        <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
-      <c r="E699" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F699" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr"/>
-      <c r="D700" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E700" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F700" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B701" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMJAN</t>
-        </is>
-      </c>
-      <c r="C701" t="inlineStr"/>
-      <c r="D701" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E701" t="inlineStr"/>
-      <c r="F701" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B702" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr"/>
-      <c r="D702" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E702" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F702" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B703" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/22</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr"/>
-      <c r="D703" t="inlineStr">
-        <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="E703" t="inlineStr"/>
-      <c r="F703" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr"/>
-      <c r="D704" t="inlineStr">
-        <is>
-          <t>1869K</t>
-        </is>
-      </c>
-      <c r="E704" t="inlineStr"/>
-      <c r="F704" t="inlineStr">
-        <is>
-          <t>1874.0K</t>
-        </is>
-      </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr"/>
-      <c r="D705" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E705" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F705" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B706" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMJAN</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr"/>
-      <c r="D706" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="E706" t="inlineStr"/>
-      <c r="F706" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr"/>
-      <c r="D707" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E707" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F707" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/22</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr"/>
-      <c r="D708" t="inlineStr">
-        <is>
-          <t>215.25K</t>
-        </is>
-      </c>
-      <c r="E708" t="inlineStr"/>
-      <c r="F708" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirJAN</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr"/>
-      <c r="D709" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E709" t="inlineStr"/>
-      <c r="F709" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr"/>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E711" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F711" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C712" t="inlineStr"/>
-      <c r="D712" t="inlineStr">
-        <is>
-          <t>-5.5%</t>
-        </is>
-      </c>
-      <c r="E712" t="inlineStr"/>
-      <c r="F712" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="C713" t="inlineStr"/>
-      <c r="D713" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="E713" t="inlineStr"/>
-      <c r="F713" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C714" t="inlineStr"/>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr"/>
-      <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr">
-        <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
-        </is>
-      </c>
-      <c r="C715" t="inlineStr"/>
-      <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr">
-        <is>
-          <t>$50 million</t>
-        </is>
-      </c>
-      <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B716" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexFEB</t>
-        </is>
-      </c>
-      <c r="C716" t="inlineStr"/>
-      <c r="D716" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E716" t="inlineStr"/>
-      <c r="F716" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B717" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C717" t="inlineStr"/>
-      <c r="D717" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="E717" t="inlineStr"/>
-      <c r="F717" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C718" t="inlineStr"/>
-      <c r="D718" t="inlineStr"/>
-      <c r="E718" t="inlineStr"/>
-      <c r="F718" t="inlineStr"/>
-      <c r="G718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B719" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C719" t="inlineStr"/>
-      <c r="D719" t="inlineStr"/>
-      <c r="E719" t="inlineStr"/>
-      <c r="F719" t="inlineStr"/>
-      <c r="G719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B720" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/27</t>
-        </is>
-      </c>
-      <c r="C720" t="inlineStr"/>
-      <c r="D720" t="inlineStr">
-        <is>
-          <t>6.04%</t>
-        </is>
-      </c>
-      <c r="E720" t="inlineStr"/>
-      <c r="F720" t="inlineStr"/>
-      <c r="G720" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B721" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/27</t>
-        </is>
-      </c>
-      <c r="C721" t="inlineStr"/>
-      <c r="D721" t="inlineStr">
-        <is>
-          <t>6.85%</t>
-        </is>
-      </c>
-      <c r="E721" t="inlineStr"/>
-      <c r="F721" t="inlineStr"/>
-      <c r="G721" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B722" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/26</t>
-        </is>
-      </c>
-      <c r="C722" t="inlineStr"/>
-      <c r="D722" t="inlineStr"/>
-      <c r="E722" t="inlineStr"/>
-      <c r="F722" t="inlineStr"/>
-      <c r="G722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>Friday February 28 2025</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr"/>
-      <c r="C723" t="inlineStr"/>
-      <c r="D723" t="inlineStr"/>
-      <c r="E723" t="inlineStr"/>
-      <c r="F723" t="inlineStr"/>
-      <c r="G723" t="inlineStr"/>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C724" t="inlineStr"/>
-      <c r="D724" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E724" t="inlineStr"/>
-      <c r="F724" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G724" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>Personal Income MoMJAN</t>
-        </is>
-      </c>
-      <c r="C725" t="inlineStr"/>
-      <c r="D725" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E725" t="inlineStr"/>
-      <c r="F725" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G725" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMJAN</t>
-        </is>
-      </c>
-      <c r="C726" t="inlineStr"/>
-      <c r="D726" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E726" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F726" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G726" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvJAN</t>
-        </is>
-      </c>
-      <c r="C727" t="inlineStr"/>
-      <c r="D727" t="inlineStr">
-        <is>
-          <t>$-122.11B</t>
-        </is>
-      </c>
-      <c r="E727" t="inlineStr"/>
-      <c r="F727" t="inlineStr">
-        <is>
-          <t>$ -126.0B</t>
-        </is>
-      </c>
-      <c r="G727" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C728" t="inlineStr"/>
-      <c r="D728" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E728" t="inlineStr"/>
-      <c r="F728" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G728" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYJAN</t>
-        </is>
-      </c>
-      <c r="C729" t="inlineStr"/>
-      <c r="D729" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E729" t="inlineStr"/>
-      <c r="F729" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
-        </is>
-      </c>
-      <c r="C730" t="inlineStr"/>
-      <c r="D730" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E730" t="inlineStr"/>
-      <c r="F730" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G730" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B731" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvJAN</t>
-        </is>
-      </c>
-      <c r="C731" t="inlineStr"/>
-      <c r="D731" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E731" t="inlineStr"/>
-      <c r="F731" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYJAN</t>
-        </is>
-      </c>
-      <c r="C732" t="inlineStr"/>
-      <c r="D732" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E732" t="inlineStr"/>
-      <c r="F732" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>Chicago PMIFEB</t>
-        </is>
-      </c>
-      <c r="C733" t="inlineStr"/>
-      <c r="D733" t="inlineStr">
-        <is>
-          <t>39.5</t>
-        </is>
-      </c>
-      <c r="E733" t="inlineStr"/>
-      <c r="F733" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="G733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/28</t>
-        </is>
-      </c>
-      <c r="C734" t="inlineStr"/>
-      <c r="D734" t="inlineStr"/>
-      <c r="E734" t="inlineStr"/>
-      <c r="F734" t="inlineStr"/>
-      <c r="G734" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B735" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/28</t>
-        </is>
-      </c>
-      <c r="C735" t="inlineStr"/>
-      <c r="D735" t="inlineStr"/>
-      <c r="E735" t="inlineStr"/>
-      <c r="F735" t="inlineStr"/>
-      <c r="G735" t="inlineStr">
         <is>
           <t>3</t>
         </is>
